--- a/Denis Robot.xlsx
+++ b/Denis Robot.xlsx
@@ -5,16 +5,17 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://blu3couk-my.sharepoint.com/personal/denis_roberts_blu-3_co_uk/OneDrive/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://blu3couk-my.sharepoint.com/personal/denis_roberts_blu-3_co_uk/OneDrive/Training and Reference/Textbooks/OA Robot/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="481" documentId="8_{30A52B8C-868B-49E7-87D0-729D8AE88A18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{137539B4-6D7A-44AC-BBCB-6008AB77E1D0}"/>
+  <xr:revisionPtr revIDLastSave="791" documentId="8_{30A52B8C-868B-49E7-87D0-729D8AE88A18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FA92F4CD-EFFE-4352-BC06-4B937F959162}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{23D6A8CF-57FE-4A34-BA04-D39890A7F850}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{23D6A8CF-57FE-4A34-BA04-D39890A7F850}"/>
   </bookViews>
   <sheets>
     <sheet name="Commands" sheetId="5" r:id="rId1"/>
     <sheet name="Ordinals-EN" sheetId="4" r:id="rId2"/>
+    <sheet name="Utilities" sheetId="6" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_AtRisk_SimSetting_AutomaticallyGenerateReports" hidden="1">FALSE</definedName>
@@ -49,6 +50,7 @@
     <definedName name="IQ_LTMMONTH" hidden="1">120000</definedName>
     <definedName name="IQ_TODAY" hidden="1">0</definedName>
     <definedName name="IQ_YTDMONTH" hidden="1">130000</definedName>
+    <definedName name="KebabCase">_xlfn.LAMBDA(_xlpm.input, _xlfn.LET(    _xlpm.\\LambdaName, "KebabCase",    _xlpm.\\CommandName, "Convert To Kebab Case",    _xlpm.\\Description, "Convert text in selection to kebab case.",    _xlpm._Words, Words(_xlpm.input, 1),    _xlpm._Result, _xlfn.TEXTJOIN("-", , LOWER(_xlpm._Words)),    _xlpm._Result ))</definedName>
     <definedName name="OrdinalDate" comment="Convert any date or range of date values into a date in long format, including &quot;th&quot; suffixes.  ">_xlfn.LAMBDA(_xlpm.dates, _xlfn.LET(
    _xlpm.\\LambdaName, "OrdinalDate",
    _xlpm.\\CommandName, "Ordinal Date",
@@ -95,6 +97,13 @@
 ")))), 1),
    _xlpm.r
 ))</definedName>
+    <definedName name="SnakeCase">_xlfn.LAMBDA(_xlpm.input, _xlfn.LET(
+   _xlpm.\\LambdaName, "SnakeCase",
+   _xlpm._Words, Words(_xlpm.input, 1),
+   _xlpm._Result, _xlfn.TEXTJOIN("_", , LOWER(_xlpm._Words)),
+   _xlpm._Result
+))</definedName>
+    <definedName name="Words">_xlfn.LAMBDA(_xlpm.text,_xlop.spill_down, _xlfn.LET(    _xlpm.\\LambdaName, "Words",    _xlpm._Words, _xlfn.TEXTSPLIT(_xlpm.text, " "),    _xlpm._Transpose, IF(_xlfn.ISOMITTED(_xlpm.spill_down), FALSE, _xlpm.spill_down),    _xlpm._Result, IF(_xlpm._Transpose, TRANSPOSE(_xlpm._Words), _xlpm._Words),    _xlpm._Result ))</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -139,7 +148,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="52">
   <si>
     <t>Number</t>
   </si>
@@ -180,12 +189,6 @@
     <t>Denis Robot</t>
   </si>
   <si>
-    <t>Requires selected cells to contain numbers</t>
-  </si>
-  <si>
-    <t>Requires selected cells to contain dates</t>
-  </si>
-  <si>
     <t>Lambda Formula</t>
   </si>
   <si>
@@ -226,6 +229,81 @@
   </si>
   <si>
     <t>How to write a Macro to modify and superscript numbers - Microsoft Community</t>
+  </si>
+  <si>
+    <t>Snake Case</t>
+  </si>
+  <si>
+    <t>Display text in snake case: all lower case, with spaces replaced with underscores</t>
+  </si>
+  <si>
+    <t>Kebab Case</t>
+  </si>
+  <si>
+    <t>Display text in kabob case: all lower case, with spaces replaced with hyphens (this is a rename of kabob case, from the Text Robot command collection)</t>
+  </si>
+  <si>
+    <t>Normal text here</t>
+  </si>
+  <si>
+    <t>NORMAL TEXT HERE</t>
+  </si>
+  <si>
+    <t>normal text here</t>
+  </si>
+  <si>
+    <t>Normal Text Here</t>
+  </si>
+  <si>
+    <t>UPPERCASE</t>
+  </si>
+  <si>
+    <t>Sentence case</t>
+  </si>
+  <si>
+    <t>lower case</t>
+  </si>
+  <si>
+    <t>Proper Case</t>
+  </si>
+  <si>
+    <t>camelCase</t>
+  </si>
+  <si>
+    <t>PascalCase</t>
+  </si>
+  <si>
+    <t>kebab-case</t>
+  </si>
+  <si>
+    <t>snake_case</t>
+  </si>
+  <si>
+    <t>SCREAMING_SNAKE_CASE</t>
+  </si>
+  <si>
+    <t>SCREAMING-KEBAB-CASE</t>
+  </si>
+  <si>
+    <t>normalTextHere</t>
+  </si>
+  <si>
+    <t>NormalTextHere</t>
+  </si>
+  <si>
+    <t>normal-text-here</t>
+  </si>
+  <si>
+    <t>normal_text_here</t>
+  </si>
+  <si>
+    <t>Words</t>
+  </si>
+  <si>
+    <t>split by words and list by words that works on arrays</t>
+  </si>
+  <si>
+    <t>Naming convention (programming) - Wikipedia</t>
   </si>
 </sst>
 </file>
@@ -378,7 +456,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -419,11 +496,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
@@ -431,7 +511,12 @@
     <cellStyle name="Input" xfId="1" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="5">
+    <dxf>
+      <border>
+        <bottom/>
+      </border>
+    </dxf>
     <dxf>
       <border>
         <bottom/>
@@ -788,10 +873,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAD3ECE6-BF56-4000-86E1-CABE04FD5F19}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -799,137 +884,155 @@
     <col min="1" max="1" width="2.7109375" customWidth="1"/>
     <col min="2" max="2" width="27.7109375" customWidth="1"/>
     <col min="3" max="3" width="17" customWidth="1"/>
-    <col min="4" max="4" width="120.7109375" customWidth="1"/>
+    <col min="4" max="4" width="135.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="14" t="s">
         <v>12</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
-      <c r="D1" s="16"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="17"/>
+      <c r="D1" s="15"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="16"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
-      <c r="D2" s="16"/>
-    </row>
-    <row r="3" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="18"/>
-      <c r="B3" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="17"/>
+      <c r="D2" s="15"/>
+    </row>
+    <row r="3" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A3" s="17"/>
+      <c r="B3" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="16"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
-      <c r="D4" s="16"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="17"/>
+      <c r="D4" s="15"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="16"/>
       <c r="B5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="16"/>
-      <c r="E5" t="s">
+      <c r="C5" s="18" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D5" s="15"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B15" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
+      <c r="C7" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B15" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="D17" t="s">
-        <v>22</v>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B18" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B19" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B22" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
+      <c r="B22" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25" s="21" t="s">
         <v>25</v>
-      </c>
-      <c r="C25" s="22" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="C26" s="22" t="s">
-        <v>28</v>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A3:D3">
-    <cfRule type="expression" dxfId="3" priority="3">
+    <cfRule type="expression" dxfId="4" priority="3">
       <formula>OFFSET(A3,0,1)&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B15:D15">
-    <cfRule type="expression" dxfId="2" priority="2">
+    <cfRule type="expression" dxfId="3" priority="2">
       <formula>OFFSET(B15,0,1)&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B22:D22">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="2" priority="1">
       <formula>OFFSET(B22,0,1)&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -947,22 +1050,22 @@
   <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="R14" sqref="R14"/>
+      <selection sqref="A1:A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.7109375" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="8"/>
-    <col min="3" max="3" width="7.85546875" style="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.7109375" style="13" customWidth="1"/>
-    <col min="5" max="5" width="7.7109375" style="13" customWidth="1"/>
-    <col min="6" max="6" width="7" style="13" customWidth="1"/>
-    <col min="7" max="7" width="4.7109375" style="8" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" style="8" customWidth="1"/>
-    <col min="9" max="9" width="10.42578125" style="8" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="7"/>
+    <col min="3" max="3" width="7.85546875" style="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.7109375" style="12" customWidth="1"/>
+    <col min="5" max="5" width="7.7109375" style="12" customWidth="1"/>
+    <col min="6" max="6" width="7" style="12" customWidth="1"/>
+    <col min="7" max="7" width="4.7109375" style="7" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" style="7" customWidth="1"/>
+    <col min="9" max="9" width="10.42578125" style="7" customWidth="1"/>
     <col min="10" max="10" width="4.7109375" customWidth="1"/>
-    <col min="11" max="11" width="11.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.5703125" style="7" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="2.7109375" customWidth="1"/>
     <col min="13" max="13" width="27.5703125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="4.7109375" customWidth="1"/>
@@ -972,161 +1075,161 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="14" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="20" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" s="5" customFormat="1" ht="34.5" x14ac:dyDescent="0.4">
-      <c r="B5" s="6" t="s">
+      <c r="A2" s="19" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" s="4" customFormat="1" ht="34.5" x14ac:dyDescent="0.4">
+      <c r="B5" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="11"/>
-      <c r="E5" s="12" t="s">
+      <c r="D5" s="10"/>
+      <c r="E5" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="12" t="s">
+      <c r="F5" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="9"/>
-      <c r="H5" s="6" t="s">
+      <c r="G5" s="8"/>
+      <c r="H5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="I5" s="6" t="s">
+      <c r="I5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="4"/>
-      <c r="K5" s="6" t="s">
+      <c r="J5" s="3"/>
+      <c r="K5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4" t="s">
+      <c r="L5" s="3"/>
+      <c r="M5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="4"/>
-    </row>
-    <row r="6" spans="1:20" s="5" customFormat="1" ht="17.25" x14ac:dyDescent="0.4">
-      <c r="B6" s="6"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="4"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+    </row>
+    <row r="6" spans="1:20" s="4" customFormat="1" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="B6" s="5"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B7" s="7" cm="1">
+      <c r="B7" s="6" cm="1">
         <f t="array" ref="B7:B37">_xlfn.SEQUENCE(31)</f>
         <v>1</v>
       </c>
-      <c r="C7" s="13" t="str">
+      <c r="C7" s="12" t="str">
         <f>"st"</f>
         <v>st</v>
       </c>
-      <c r="E7" s="14" cm="1">
+      <c r="E7" s="13" cm="1">
         <f t="array" ref="E7:E37">IF((MOD(_xlfn.ANCHORARRAY(B7), 100) &gt; 10) * (MOD(_xlfn.ANCHORARRAY(B7), 100) &lt; 14), "th", 0)</f>
         <v>0</v>
       </c>
-      <c r="F7" s="14" t="str" cm="1">
+      <c r="F7" s="13" t="str" cm="1">
         <f t="array" ref="F7:F37">_xlfn.SWITCH(MOD(_xlfn.ANCHORARRAY(B7), 10), 1, "st", 2, "nd", 3, "rd", "th")</f>
         <v>st</v>
       </c>
-      <c r="H7" s="8" t="str" cm="1">
+      <c r="H7" s="7" t="str" cm="1">
         <f t="array" ref="H7:H37">OrdinalSuffix(_xlfn.ANCHORARRAY(B7))</f>
         <v>st</v>
       </c>
-      <c r="I7" s="8" t="str" cm="1">
+      <c r="I7" s="7" t="str" cm="1">
         <f t="array" ref="I7:I37">OrdinalNumber(_xlfn.ANCHORARRAY(B7))</f>
         <v>1st</v>
       </c>
-      <c r="K7" s="10" cm="1">
+      <c r="K7" s="9" cm="1">
         <f t="array" ref="K7:K37">DATEVALUE("31/12/2022")+_xlfn.ANCHORARRAY(B7)</f>
         <v>44927</v>
       </c>
-      <c r="M7" s="3" t="str" cm="1">
+      <c r="M7" t="str" cm="1">
         <f t="array" ref="M7:M37">OrdinalDate(_xlfn.ANCHORARRAY(K7))</f>
         <v>Sunday 1st January 2023</v>
       </c>
       <c r="N7" s="1"/>
-      <c r="O7" s="21" t="str" cm="1">
+      <c r="O7" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O7" ca="1">ShowFormulas(E7)</f>
         <v>E7: =IF((MOD(B7#, 100) &gt; 10) * (MOD(B7#, 100) &lt; 14), "th", 0)</v>
       </c>
       <c r="T7" s="1"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B8" s="7">
+      <c r="B8" s="6">
         <v>2</v>
       </c>
-      <c r="C8" s="13" t="str">
+      <c r="C8" s="12" t="str">
         <f>"nd"</f>
         <v>nd</v>
       </c>
-      <c r="E8" s="13">
+      <c r="E8" s="12">
         <v>0</v>
       </c>
-      <c r="F8" s="13" t="str">
+      <c r="F8" s="12" t="str">
         <v>nd</v>
       </c>
-      <c r="H8" s="8" t="str">
+      <c r="H8" s="7" t="str">
         <v>nd</v>
       </c>
-      <c r="I8" s="8" t="str">
+      <c r="I8" s="7" t="str">
         <v>2nd</v>
       </c>
-      <c r="K8" s="10">
+      <c r="K8" s="9">
         <v>44928</v>
       </c>
       <c r="M8" t="str">
         <v>Monday 2nd January 2023</v>
       </c>
       <c r="N8" s="1"/>
-      <c r="O8" s="21" t="str" cm="1">
+      <c r="O8" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O8" ca="1">ShowFormulas(F7)</f>
         <v>F7: =SWITCH(MOD(B7#, 10), 1, "st", 2, "nd", 3, "rd", "th")</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B9" s="7">
+      <c r="B9" s="6">
         <v>3</v>
       </c>
-      <c r="C9" s="13" t="str">
+      <c r="C9" s="12" t="str">
         <f>"rd"</f>
         <v>rd</v>
       </c>
-      <c r="E9" s="13">
+      <c r="E9" s="12">
         <v>0</v>
       </c>
-      <c r="F9" s="13" t="str">
+      <c r="F9" s="12" t="str">
         <v>rd</v>
       </c>
-      <c r="H9" s="8" t="str">
+      <c r="H9" s="7" t="str">
         <v>rd</v>
       </c>
-      <c r="I9" s="8" t="str">
+      <c r="I9" s="7" t="str">
         <v>3rd</v>
       </c>
-      <c r="K9" s="10">
+      <c r="K9" s="9">
         <v>44929</v>
       </c>
       <c r="M9" t="str">
@@ -1135,88 +1238,88 @@
       <c r="N9" s="1"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B10" s="7">
+      <c r="B10" s="6">
         <v>4</v>
       </c>
-      <c r="C10" s="13" t="str">
+      <c r="C10" s="12" t="str">
         <f>"th"</f>
         <v>th</v>
       </c>
-      <c r="E10" s="13">
+      <c r="E10" s="12">
         <v>0</v>
       </c>
-      <c r="F10" s="13" t="str">
-        <v>th</v>
-      </c>
-      <c r="H10" s="8" t="str">
-        <v>th</v>
-      </c>
-      <c r="I10" s="8" t="str">
+      <c r="F10" s="12" t="str">
+        <v>th</v>
+      </c>
+      <c r="H10" s="7" t="str">
+        <v>th</v>
+      </c>
+      <c r="I10" s="7" t="str">
         <v>4th</v>
       </c>
-      <c r="K10" s="10">
+      <c r="K10" s="9">
         <v>44930</v>
       </c>
       <c r="M10" t="str">
         <v>Wednesday 4th January 2023</v>
       </c>
       <c r="N10" s="1"/>
-      <c r="O10" s="21" t="str" cm="1">
+      <c r="O10" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O10" ca="1">ShowFormulas(H7)</f>
         <v>H7: =OrdinalSuffix(B7#)</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B11" s="7">
+      <c r="B11" s="6">
         <v>5</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="E11" s="13">
+      <c r="E11" s="12">
         <v>0</v>
       </c>
-      <c r="F11" s="13" t="str">
-        <v>th</v>
-      </c>
-      <c r="H11" s="8" t="str">
-        <v>th</v>
-      </c>
-      <c r="I11" s="8" t="str">
+      <c r="F11" s="12" t="str">
+        <v>th</v>
+      </c>
+      <c r="H11" s="7" t="str">
+        <v>th</v>
+      </c>
+      <c r="I11" s="7" t="str">
         <v>5th</v>
       </c>
-      <c r="K11" s="10">
+      <c r="K11" s="9">
         <v>44931</v>
       </c>
       <c r="M11" t="str">
         <v>Thursday 5th January 2023</v>
       </c>
       <c r="N11" s="1"/>
-      <c r="O11" s="21" t="str" cm="1">
+      <c r="O11" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O11" ca="1">ShowFormulas(I7)</f>
         <v>I7: =OrdinalNumber(B7#)</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B12" s="7">
+      <c r="B12" s="6">
         <v>6</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="E12" s="13">
+      <c r="E12" s="12">
         <v>0</v>
       </c>
-      <c r="F12" s="13" t="str">
-        <v>th</v>
-      </c>
-      <c r="H12" s="8" t="str">
-        <v>th</v>
-      </c>
-      <c r="I12" s="8" t="str">
+      <c r="F12" s="12" t="str">
+        <v>th</v>
+      </c>
+      <c r="H12" s="7" t="str">
+        <v>th</v>
+      </c>
+      <c r="I12" s="7" t="str">
         <v>6th</v>
       </c>
-      <c r="K12" s="10">
+      <c r="K12" s="9">
         <v>44932</v>
       </c>
       <c r="M12" t="str">
@@ -1225,56 +1328,56 @@
       <c r="N12" s="1"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B13" s="7">
+      <c r="B13" s="6">
         <v>7</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C13" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="E13" s="13">
+      <c r="E13" s="12">
         <v>0</v>
       </c>
-      <c r="F13" s="13" t="str">
-        <v>th</v>
-      </c>
-      <c r="H13" s="8" t="str">
-        <v>th</v>
-      </c>
-      <c r="I13" s="8" t="str">
+      <c r="F13" s="12" t="str">
+        <v>th</v>
+      </c>
+      <c r="H13" s="7" t="str">
+        <v>th</v>
+      </c>
+      <c r="I13" s="7" t="str">
         <v>7th</v>
       </c>
-      <c r="K13" s="10">
+      <c r="K13" s="9">
         <v>44933</v>
       </c>
       <c r="M13" t="str">
         <v>Saturday 7th January 2023</v>
       </c>
       <c r="N13" s="1"/>
-      <c r="O13" s="21" t="str" cm="1">
+      <c r="O13" s="20" t="str" cm="1">
         <f t="array" aca="1" ref="O13" ca="1">ShowFormulas(M7)</f>
         <v>M7: =OrdinalDate(K7#)</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B14" s="7">
+      <c r="B14" s="6">
         <v>8</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C14" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="E14" s="13">
+      <c r="E14" s="12">
         <v>0</v>
       </c>
-      <c r="F14" s="13" t="str">
-        <v>th</v>
-      </c>
-      <c r="H14" s="8" t="str">
-        <v>th</v>
-      </c>
-      <c r="I14" s="8" t="str">
+      <c r="F14" s="12" t="str">
+        <v>th</v>
+      </c>
+      <c r="H14" s="7" t="str">
+        <v>th</v>
+      </c>
+      <c r="I14" s="7" t="str">
         <v>8th</v>
       </c>
-      <c r="K14" s="10">
+      <c r="K14" s="9">
         <v>44934</v>
       </c>
       <c r="M14" t="str">
@@ -1283,25 +1386,25 @@
       <c r="N14" s="1"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B15" s="7">
+      <c r="B15" s="6">
         <v>9</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C15" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="E15" s="13">
+      <c r="E15" s="12">
         <v>0</v>
       </c>
-      <c r="F15" s="13" t="str">
-        <v>th</v>
-      </c>
-      <c r="H15" s="8" t="str">
-        <v>th</v>
-      </c>
-      <c r="I15" s="8" t="str">
+      <c r="F15" s="12" t="str">
+        <v>th</v>
+      </c>
+      <c r="H15" s="7" t="str">
+        <v>th</v>
+      </c>
+      <c r="I15" s="7" t="str">
         <v>9th</v>
       </c>
-      <c r="K15" s="10">
+      <c r="K15" s="9">
         <v>44935</v>
       </c>
       <c r="M15" t="str">
@@ -1310,25 +1413,25 @@
       <c r="N15" s="1"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B16" s="7">
+      <c r="B16" s="6">
         <v>10</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="C16" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="E16" s="13">
+      <c r="E16" s="12">
         <v>0</v>
       </c>
-      <c r="F16" s="13" t="str">
-        <v>th</v>
-      </c>
-      <c r="H16" s="8" t="str">
-        <v>th</v>
-      </c>
-      <c r="I16" s="8" t="str">
+      <c r="F16" s="12" t="str">
+        <v>th</v>
+      </c>
+      <c r="H16" s="7" t="str">
+        <v>th</v>
+      </c>
+      <c r="I16" s="7" t="str">
         <v>10th</v>
       </c>
-      <c r="K16" s="10">
+      <c r="K16" s="9">
         <v>44936</v>
       </c>
       <c r="M16" t="str">
@@ -1337,25 +1440,25 @@
       <c r="N16" s="1"/>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B17" s="7">
+      <c r="B17" s="6">
         <v>11</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="C17" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="E17" s="13" t="str">
-        <v>th</v>
-      </c>
-      <c r="F17" s="13" t="str">
+      <c r="E17" s="12" t="str">
+        <v>th</v>
+      </c>
+      <c r="F17" s="12" t="str">
         <v>st</v>
       </c>
-      <c r="H17" s="8" t="str">
-        <v>th</v>
-      </c>
-      <c r="I17" s="8" t="str">
+      <c r="H17" s="7" t="str">
+        <v>th</v>
+      </c>
+      <c r="I17" s="7" t="str">
         <v>11th</v>
       </c>
-      <c r="K17" s="10">
+      <c r="K17" s="9">
         <v>44937</v>
       </c>
       <c r="M17" t="str">
@@ -1364,25 +1467,25 @@
       <c r="N17" s="1"/>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B18" s="7">
+      <c r="B18" s="6">
         <v>12</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="C18" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="E18" s="13" t="str">
-        <v>th</v>
-      </c>
-      <c r="F18" s="13" t="str">
+      <c r="E18" s="12" t="str">
+        <v>th</v>
+      </c>
+      <c r="F18" s="12" t="str">
         <v>nd</v>
       </c>
-      <c r="H18" s="8" t="str">
-        <v>th</v>
-      </c>
-      <c r="I18" s="8" t="str">
+      <c r="H18" s="7" t="str">
+        <v>th</v>
+      </c>
+      <c r="I18" s="7" t="str">
         <v>12th</v>
       </c>
-      <c r="K18" s="10">
+      <c r="K18" s="9">
         <v>44938</v>
       </c>
       <c r="M18" t="str">
@@ -1391,25 +1494,25 @@
       <c r="N18" s="1"/>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B19" s="7">
+      <c r="B19" s="6">
         <v>13</v>
       </c>
-      <c r="C19" s="13" t="s">
+      <c r="C19" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="E19" s="13" t="str">
-        <v>th</v>
-      </c>
-      <c r="F19" s="13" t="str">
+      <c r="E19" s="12" t="str">
+        <v>th</v>
+      </c>
+      <c r="F19" s="12" t="str">
         <v>rd</v>
       </c>
-      <c r="H19" s="8" t="str">
-        <v>th</v>
-      </c>
-      <c r="I19" s="8" t="str">
+      <c r="H19" s="7" t="str">
+        <v>th</v>
+      </c>
+      <c r="I19" s="7" t="str">
         <v>13th</v>
       </c>
-      <c r="K19" s="10">
+      <c r="K19" s="9">
         <v>44939</v>
       </c>
       <c r="M19" t="str">
@@ -1418,25 +1521,25 @@
       <c r="N19" s="1"/>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B20" s="7">
+      <c r="B20" s="6">
         <v>14</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="C20" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="E20" s="13">
+      <c r="E20" s="12">
         <v>0</v>
       </c>
-      <c r="F20" s="13" t="str">
-        <v>th</v>
-      </c>
-      <c r="H20" s="8" t="str">
-        <v>th</v>
-      </c>
-      <c r="I20" s="8" t="str">
+      <c r="F20" s="12" t="str">
+        <v>th</v>
+      </c>
+      <c r="H20" s="7" t="str">
+        <v>th</v>
+      </c>
+      <c r="I20" s="7" t="str">
         <v>14th</v>
       </c>
-      <c r="K20" s="10">
+      <c r="K20" s="9">
         <v>44940</v>
       </c>
       <c r="M20" t="str">
@@ -1445,25 +1548,25 @@
       <c r="N20" s="1"/>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B21" s="7">
+      <c r="B21" s="6">
         <v>15</v>
       </c>
-      <c r="C21" s="13" t="s">
+      <c r="C21" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="E21" s="13">
+      <c r="E21" s="12">
         <v>0</v>
       </c>
-      <c r="F21" s="13" t="str">
-        <v>th</v>
-      </c>
-      <c r="H21" s="8" t="str">
-        <v>th</v>
-      </c>
-      <c r="I21" s="8" t="str">
+      <c r="F21" s="12" t="str">
+        <v>th</v>
+      </c>
+      <c r="H21" s="7" t="str">
+        <v>th</v>
+      </c>
+      <c r="I21" s="7" t="str">
         <v>15th</v>
       </c>
-      <c r="K21" s="10">
+      <c r="K21" s="9">
         <v>44941</v>
       </c>
       <c r="M21" t="str">
@@ -1472,25 +1575,25 @@
       <c r="N21" s="1"/>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B22" s="7">
+      <c r="B22" s="6">
         <v>16</v>
       </c>
-      <c r="C22" s="13" t="s">
+      <c r="C22" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="E22" s="13">
+      <c r="E22" s="12">
         <v>0</v>
       </c>
-      <c r="F22" s="13" t="str">
-        <v>th</v>
-      </c>
-      <c r="H22" s="8" t="str">
-        <v>th</v>
-      </c>
-      <c r="I22" s="8" t="str">
+      <c r="F22" s="12" t="str">
+        <v>th</v>
+      </c>
+      <c r="H22" s="7" t="str">
+        <v>th</v>
+      </c>
+      <c r="I22" s="7" t="str">
         <v>16th</v>
       </c>
-      <c r="K22" s="10">
+      <c r="K22" s="9">
         <v>44942</v>
       </c>
       <c r="M22" t="str">
@@ -1499,25 +1602,25 @@
       <c r="N22" s="1"/>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B23" s="7">
+      <c r="B23" s="6">
         <v>17</v>
       </c>
-      <c r="C23" s="13" t="s">
+      <c r="C23" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="E23" s="13">
+      <c r="E23" s="12">
         <v>0</v>
       </c>
-      <c r="F23" s="13" t="str">
-        <v>th</v>
-      </c>
-      <c r="H23" s="8" t="str">
-        <v>th</v>
-      </c>
-      <c r="I23" s="8" t="str">
+      <c r="F23" s="12" t="str">
+        <v>th</v>
+      </c>
+      <c r="H23" s="7" t="str">
+        <v>th</v>
+      </c>
+      <c r="I23" s="7" t="str">
         <v>17th</v>
       </c>
-      <c r="K23" s="10">
+      <c r="K23" s="9">
         <v>44943</v>
       </c>
       <c r="M23" t="str">
@@ -1526,25 +1629,25 @@
       <c r="N23" s="1"/>
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B24" s="7">
+      <c r="B24" s="6">
         <v>18</v>
       </c>
-      <c r="C24" s="13" t="s">
+      <c r="C24" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="E24" s="13">
+      <c r="E24" s="12">
         <v>0</v>
       </c>
-      <c r="F24" s="13" t="str">
-        <v>th</v>
-      </c>
-      <c r="H24" s="8" t="str">
-        <v>th</v>
-      </c>
-      <c r="I24" s="8" t="str">
+      <c r="F24" s="12" t="str">
+        <v>th</v>
+      </c>
+      <c r="H24" s="7" t="str">
+        <v>th</v>
+      </c>
+      <c r="I24" s="7" t="str">
         <v>18th</v>
       </c>
-      <c r="K24" s="10">
+      <c r="K24" s="9">
         <v>44944</v>
       </c>
       <c r="M24" t="str">
@@ -1553,25 +1656,25 @@
       <c r="N24" s="1"/>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B25" s="7">
+      <c r="B25" s="6">
         <v>19</v>
       </c>
-      <c r="C25" s="13" t="s">
+      <c r="C25" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="E25" s="13">
+      <c r="E25" s="12">
         <v>0</v>
       </c>
-      <c r="F25" s="13" t="str">
-        <v>th</v>
-      </c>
-      <c r="H25" s="8" t="str">
-        <v>th</v>
-      </c>
-      <c r="I25" s="8" t="str">
+      <c r="F25" s="12" t="str">
+        <v>th</v>
+      </c>
+      <c r="H25" s="7" t="str">
+        <v>th</v>
+      </c>
+      <c r="I25" s="7" t="str">
         <v>19th</v>
       </c>
-      <c r="K25" s="10">
+      <c r="K25" s="9">
         <v>44945</v>
       </c>
       <c r="M25" t="str">
@@ -1580,25 +1683,25 @@
       <c r="N25" s="1"/>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B26" s="7">
+      <c r="B26" s="6">
         <v>20</v>
       </c>
-      <c r="C26" s="13" t="s">
+      <c r="C26" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="E26" s="13">
+      <c r="E26" s="12">
         <v>0</v>
       </c>
-      <c r="F26" s="13" t="str">
-        <v>th</v>
-      </c>
-      <c r="H26" s="8" t="str">
-        <v>th</v>
-      </c>
-      <c r="I26" s="8" t="str">
+      <c r="F26" s="12" t="str">
+        <v>th</v>
+      </c>
+      <c r="H26" s="7" t="str">
+        <v>th</v>
+      </c>
+      <c r="I26" s="7" t="str">
         <v>20th</v>
       </c>
-      <c r="K26" s="10">
+      <c r="K26" s="9">
         <v>44946</v>
       </c>
       <c r="M26" t="str">
@@ -1607,25 +1710,25 @@
       <c r="N26" s="1"/>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B27" s="7">
+      <c r="B27" s="6">
         <v>21</v>
       </c>
-      <c r="C27" s="13" t="s">
+      <c r="C27" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="E27" s="13">
+      <c r="E27" s="12">
         <v>0</v>
       </c>
-      <c r="F27" s="13" t="str">
+      <c r="F27" s="12" t="str">
         <v>st</v>
       </c>
-      <c r="H27" s="8" t="str">
+      <c r="H27" s="7" t="str">
         <v>st</v>
       </c>
-      <c r="I27" s="8" t="str">
+      <c r="I27" s="7" t="str">
         <v>21st</v>
       </c>
-      <c r="K27" s="10">
+      <c r="K27" s="9">
         <v>44947</v>
       </c>
       <c r="M27" t="str">
@@ -1634,25 +1737,25 @@
       <c r="N27" s="1"/>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B28" s="7">
+      <c r="B28" s="6">
         <v>22</v>
       </c>
-      <c r="C28" s="13" t="s">
+      <c r="C28" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="E28" s="13">
+      <c r="E28" s="12">
         <v>0</v>
       </c>
-      <c r="F28" s="13" t="str">
+      <c r="F28" s="12" t="str">
         <v>nd</v>
       </c>
-      <c r="H28" s="8" t="str">
+      <c r="H28" s="7" t="str">
         <v>nd</v>
       </c>
-      <c r="I28" s="8" t="str">
+      <c r="I28" s="7" t="str">
         <v>22nd</v>
       </c>
-      <c r="K28" s="10">
+      <c r="K28" s="9">
         <v>44948</v>
       </c>
       <c r="M28" t="str">
@@ -1661,25 +1764,25 @@
       <c r="N28" s="1"/>
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B29" s="7">
+      <c r="B29" s="6">
         <v>23</v>
       </c>
-      <c r="C29" s="13" t="s">
+      <c r="C29" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E29" s="13">
+      <c r="E29" s="12">
         <v>0</v>
       </c>
-      <c r="F29" s="13" t="str">
+      <c r="F29" s="12" t="str">
         <v>rd</v>
       </c>
-      <c r="H29" s="8" t="str">
+      <c r="H29" s="7" t="str">
         <v>rd</v>
       </c>
-      <c r="I29" s="8" t="str">
+      <c r="I29" s="7" t="str">
         <v>23rd</v>
       </c>
-      <c r="K29" s="10">
+      <c r="K29" s="9">
         <v>44949</v>
       </c>
       <c r="M29" t="str">
@@ -1688,25 +1791,25 @@
       <c r="N29" s="1"/>
     </row>
     <row r="30" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B30" s="7">
+      <c r="B30" s="6">
         <v>24</v>
       </c>
-      <c r="C30" s="13" t="s">
+      <c r="C30" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="E30" s="13">
+      <c r="E30" s="12">
         <v>0</v>
       </c>
-      <c r="F30" s="13" t="str">
-        <v>th</v>
-      </c>
-      <c r="H30" s="8" t="str">
-        <v>th</v>
-      </c>
-      <c r="I30" s="8" t="str">
+      <c r="F30" s="12" t="str">
+        <v>th</v>
+      </c>
+      <c r="H30" s="7" t="str">
+        <v>th</v>
+      </c>
+      <c r="I30" s="7" t="str">
         <v>24th</v>
       </c>
-      <c r="K30" s="10">
+      <c r="K30" s="9">
         <v>44950</v>
       </c>
       <c r="M30" t="str">
@@ -1715,25 +1818,25 @@
       <c r="N30" s="1"/>
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B31" s="7">
+      <c r="B31" s="6">
         <v>25</v>
       </c>
-      <c r="C31" s="13" t="s">
+      <c r="C31" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="E31" s="13">
+      <c r="E31" s="12">
         <v>0</v>
       </c>
-      <c r="F31" s="13" t="str">
-        <v>th</v>
-      </c>
-      <c r="H31" s="8" t="str">
-        <v>th</v>
-      </c>
-      <c r="I31" s="8" t="str">
+      <c r="F31" s="12" t="str">
+        <v>th</v>
+      </c>
+      <c r="H31" s="7" t="str">
+        <v>th</v>
+      </c>
+      <c r="I31" s="7" t="str">
         <v>25th</v>
       </c>
-      <c r="K31" s="10">
+      <c r="K31" s="9">
         <v>44951</v>
       </c>
       <c r="M31" t="str">
@@ -1742,25 +1845,25 @@
       <c r="N31" s="1"/>
     </row>
     <row r="32" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B32" s="7">
+      <c r="B32" s="6">
         <v>26</v>
       </c>
-      <c r="C32" s="13" t="s">
+      <c r="C32" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="E32" s="13">
+      <c r="E32" s="12">
         <v>0</v>
       </c>
-      <c r="F32" s="13" t="str">
-        <v>th</v>
-      </c>
-      <c r="H32" s="8" t="str">
-        <v>th</v>
-      </c>
-      <c r="I32" s="8" t="str">
+      <c r="F32" s="12" t="str">
+        <v>th</v>
+      </c>
+      <c r="H32" s="7" t="str">
+        <v>th</v>
+      </c>
+      <c r="I32" s="7" t="str">
         <v>26th</v>
       </c>
-      <c r="K32" s="10">
+      <c r="K32" s="9">
         <v>44952</v>
       </c>
       <c r="M32" t="str">
@@ -1769,25 +1872,25 @@
       <c r="N32" s="1"/>
     </row>
     <row r="33" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B33" s="7">
+      <c r="B33" s="6">
         <v>27</v>
       </c>
-      <c r="C33" s="13" t="s">
+      <c r="C33" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="E33" s="13">
+      <c r="E33" s="12">
         <v>0</v>
       </c>
-      <c r="F33" s="13" t="str">
-        <v>th</v>
-      </c>
-      <c r="H33" s="8" t="str">
-        <v>th</v>
-      </c>
-      <c r="I33" s="8" t="str">
+      <c r="F33" s="12" t="str">
+        <v>th</v>
+      </c>
+      <c r="H33" s="7" t="str">
+        <v>th</v>
+      </c>
+      <c r="I33" s="7" t="str">
         <v>27th</v>
       </c>
-      <c r="K33" s="10">
+      <c r="K33" s="9">
         <v>44953</v>
       </c>
       <c r="M33" t="str">
@@ -1796,25 +1899,25 @@
       <c r="N33" s="1"/>
     </row>
     <row r="34" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B34" s="7">
+      <c r="B34" s="6">
         <v>28</v>
       </c>
-      <c r="C34" s="13" t="s">
+      <c r="C34" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="E34" s="13">
+      <c r="E34" s="12">
         <v>0</v>
       </c>
-      <c r="F34" s="13" t="str">
-        <v>th</v>
-      </c>
-      <c r="H34" s="8" t="str">
-        <v>th</v>
-      </c>
-      <c r="I34" s="8" t="str">
+      <c r="F34" s="12" t="str">
+        <v>th</v>
+      </c>
+      <c r="H34" s="7" t="str">
+        <v>th</v>
+      </c>
+      <c r="I34" s="7" t="str">
         <v>28th</v>
       </c>
-      <c r="K34" s="10">
+      <c r="K34" s="9">
         <v>44954</v>
       </c>
       <c r="M34" t="str">
@@ -1823,25 +1926,25 @@
       <c r="N34" s="1"/>
     </row>
     <row r="35" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B35" s="7">
+      <c r="B35" s="6">
         <v>29</v>
       </c>
-      <c r="C35" s="13" t="s">
+      <c r="C35" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="E35" s="13">
+      <c r="E35" s="12">
         <v>0</v>
       </c>
-      <c r="F35" s="13" t="str">
-        <v>th</v>
-      </c>
-      <c r="H35" s="8" t="str">
-        <v>th</v>
-      </c>
-      <c r="I35" s="8" t="str">
+      <c r="F35" s="12" t="str">
+        <v>th</v>
+      </c>
+      <c r="H35" s="7" t="str">
+        <v>th</v>
+      </c>
+      <c r="I35" s="7" t="str">
         <v>29th</v>
       </c>
-      <c r="K35" s="10">
+      <c r="K35" s="9">
         <v>44955</v>
       </c>
       <c r="M35" t="str">
@@ -1850,25 +1953,25 @@
       <c r="N35" s="1"/>
     </row>
     <row r="36" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B36" s="7">
+      <c r="B36" s="6">
         <v>30</v>
       </c>
-      <c r="C36" s="13" t="s">
+      <c r="C36" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="E36" s="13">
+      <c r="E36" s="12">
         <v>0</v>
       </c>
-      <c r="F36" s="13" t="str">
-        <v>th</v>
-      </c>
-      <c r="H36" s="8" t="str">
-        <v>th</v>
-      </c>
-      <c r="I36" s="8" t="str">
+      <c r="F36" s="12" t="str">
+        <v>th</v>
+      </c>
+      <c r="H36" s="7" t="str">
+        <v>th</v>
+      </c>
+      <c r="I36" s="7" t="str">
         <v>30th</v>
       </c>
-      <c r="K36" s="10">
+      <c r="K36" s="9">
         <v>44956</v>
       </c>
       <c r="M36" t="str">
@@ -1877,25 +1980,25 @@
       <c r="N36" s="1"/>
     </row>
     <row r="37" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B37" s="7">
+      <c r="B37" s="6">
         <v>31</v>
       </c>
-      <c r="C37" s="13" t="s">
+      <c r="C37" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="E37" s="13">
+      <c r="E37" s="12">
         <v>0</v>
       </c>
-      <c r="F37" s="13" t="str">
+      <c r="F37" s="12" t="str">
         <v>st</v>
       </c>
-      <c r="H37" s="8" t="str">
+      <c r="H37" s="7" t="str">
         <v>st</v>
       </c>
-      <c r="I37" s="8" t="str">
+      <c r="I37" s="7" t="str">
         <v>31st</v>
       </c>
-      <c r="K37" s="10">
+      <c r="K37" s="9">
         <v>44957</v>
       </c>
       <c r="M37" t="str">
@@ -1913,10 +2016,638 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C3A5B8C-C24B-4DA3-ADC1-F211CBF4BEF6}">
+  <dimension ref="A1:S20"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="O29" sqref="O29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="2.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.7109375" style="7" customWidth="1"/>
+    <col min="5" max="5" width="18.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.7109375" style="7" customWidth="1"/>
+    <col min="9" max="9" width="15" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4.7109375" style="7" customWidth="1"/>
+    <col min="14" max="14" width="24.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="25.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="2.7109375" customWidth="1"/>
+    <col min="17" max="17" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="4" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="4.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A2" s="19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="C3" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="G3" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="J3" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="K3" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="L3" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="M3" s="22"/>
+      <c r="N3" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="O3" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q3" s="22" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="C4" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="N4" s="7" t="str" cm="1">
+        <f t="array" ref="N4:N15">UPPER(K4:K15)</f>
+        <v>NORMAL-TEXT-HERE</v>
+      </c>
+      <c r="O4" s="7" t="str" cm="1">
+        <f t="array" ref="O4:O15">UPPER(L4:L15)</f>
+        <v>NORMAL_TEXT_HERE</v>
+      </c>
+      <c r="Q4" t="str" cm="1">
+        <f t="array" ref="Q4:S4">Words(C4)</f>
+        <v>Normal</v>
+      </c>
+      <c r="R4" t="str">
+        <v>text</v>
+      </c>
+      <c r="S4" t="str">
+        <v>here</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="C5" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="N5" s="7" t="str">
+        <v>NORMAL-TEXT-HERE</v>
+      </c>
+      <c r="O5" s="7" t="str">
+        <v>NORMAL_TEXT_HERE</v>
+      </c>
+      <c r="Q5" t="str" cm="1">
+        <f t="array" ref="Q5:S5">Words(C5)</f>
+        <v>Normal</v>
+      </c>
+      <c r="R5" t="str">
+        <v>text</v>
+      </c>
+      <c r="S5" t="str">
+        <v>here</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="C6" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="N6" s="7" t="str">
+        <v>NORMAL-TEXT-HERE</v>
+      </c>
+      <c r="O6" s="7" t="str">
+        <v>NORMAL_TEXT_HERE</v>
+      </c>
+      <c r="Q6" t="str" cm="1">
+        <f t="array" ref="Q6:S6">Words(C6)</f>
+        <v>Normal</v>
+      </c>
+      <c r="R6" t="str">
+        <v>text</v>
+      </c>
+      <c r="S6" t="str">
+        <v>here</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="C7" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="N7" s="7" t="str">
+        <v>NORMAL-TEXT-HERE</v>
+      </c>
+      <c r="O7" s="7" t="str">
+        <v>NORMAL_TEXT_HERE</v>
+      </c>
+      <c r="Q7" t="str" cm="1">
+        <f t="array" ref="Q7:S7">Words(C7)</f>
+        <v>Normal</v>
+      </c>
+      <c r="R7" t="str">
+        <v>text</v>
+      </c>
+      <c r="S7" t="str">
+        <v>here</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="C8" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="N8" s="7" t="str">
+        <v>NORMAL-TEXT-HERE</v>
+      </c>
+      <c r="O8" s="7" t="str">
+        <v>NORMAL_TEXT_HERE</v>
+      </c>
+      <c r="Q8" t="str" cm="1">
+        <f t="array" ref="Q8:S8">Words(C8)</f>
+        <v>Normal</v>
+      </c>
+      <c r="R8" t="str">
+        <v>text</v>
+      </c>
+      <c r="S8" t="str">
+        <v>here</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="C9" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="N9" s="7" t="str">
+        <v>NORMAL-TEXT-HERE</v>
+      </c>
+      <c r="O9" s="7" t="str">
+        <v>NORMAL_TEXT_HERE</v>
+      </c>
+      <c r="Q9" t="str" cm="1">
+        <f t="array" ref="Q9:S9">Words(C9)</f>
+        <v>Normal</v>
+      </c>
+      <c r="R9" t="str">
+        <v>text</v>
+      </c>
+      <c r="S9" t="str">
+        <v>here</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="C10" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="N10" s="7" t="str">
+        <v>NORMAL-TEXT-HERE</v>
+      </c>
+      <c r="O10" s="7" t="str">
+        <v>NORMAL_TEXT_HERE</v>
+      </c>
+      <c r="Q10" t="str" cm="1">
+        <f t="array" ref="Q10:S10">Words(C10)</f>
+        <v>Normal</v>
+      </c>
+      <c r="R10" t="str">
+        <v>text</v>
+      </c>
+      <c r="S10" t="str">
+        <v>here</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="C11" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="N11" s="7" t="str">
+        <v>NORMAL-TEXT-HERE</v>
+      </c>
+      <c r="O11" s="7" t="str">
+        <v>NORMAL_TEXT_HERE</v>
+      </c>
+      <c r="Q11" t="str" cm="1">
+        <f t="array" ref="Q11:S11">Words(C11)</f>
+        <v>Normal</v>
+      </c>
+      <c r="R11" t="str">
+        <v>text</v>
+      </c>
+      <c r="S11" t="str">
+        <v>here</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="C12" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="N12" s="7" t="str">
+        <v>NORMAL-TEXT-HERE</v>
+      </c>
+      <c r="O12" s="7" t="str">
+        <v>NORMAL_TEXT_HERE</v>
+      </c>
+      <c r="Q12" t="str" cm="1">
+        <f t="array" ref="Q12:S12">Words(C12)</f>
+        <v>Normal</v>
+      </c>
+      <c r="R12" t="str">
+        <v>text</v>
+      </c>
+      <c r="S12" t="str">
+        <v>here</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="C13" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="N13" s="7" t="str">
+        <v>NORMAL-TEXT-HERE</v>
+      </c>
+      <c r="O13" s="7" t="str">
+        <v>NORMAL_TEXT_HERE</v>
+      </c>
+      <c r="Q13" t="str" cm="1">
+        <f t="array" ref="Q13:S13">Words(C13)</f>
+        <v>Normal</v>
+      </c>
+      <c r="R13" t="str">
+        <v>text</v>
+      </c>
+      <c r="S13" t="str">
+        <v>here</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="C14" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="N14" s="7" t="str">
+        <v>NORMAL-TEXT-HERE</v>
+      </c>
+      <c r="O14" s="7" t="str">
+        <v>NORMAL_TEXT_HERE</v>
+      </c>
+      <c r="Q14" t="str" cm="1">
+        <f t="array" ref="Q14:S14">Words(C14)</f>
+        <v>Normal</v>
+      </c>
+      <c r="R14" t="str">
+        <v>text</v>
+      </c>
+      <c r="S14" t="str">
+        <v>here</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="C15" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I15" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="N15" s="7" t="str">
+        <v>NORMAL-TEXT-HERE</v>
+      </c>
+      <c r="O15" s="7" t="str">
+        <v>NORMAL_TEXT_HERE</v>
+      </c>
+      <c r="Q15" t="str" cm="1">
+        <f t="array" ref="Q15:S15">Words(C15)</f>
+        <v>Normal</v>
+      </c>
+      <c r="R15" t="str">
+        <v>text</v>
+      </c>
+      <c r="S15" t="str">
+        <v>here</v>
+      </c>
+    </row>
+    <row r="20" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C20" s="21" t="s">
+        <v>51</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A2">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>OFFSET(A2,0,1)&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="C20" r:id="rId1" location="Examples_of_multiple-word_identifier_formats" xr:uid="{610CDC3F-424D-448B-ADC8-AB7A26B8D9F6}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <JSON><![CDATA[
 {
   "Commands": [
+    {
+      "Name": "Convert To Kebab Case",
+      "Description": "Convert text in selection to kebab case (lower case, separated by hyphens)",
+      "Type": "ExcelFormulaCommand",
+      "UserContextFilter": "ExcelActiveCellValueIsText",
+      "Formula": "=KebabCase([[ActiveCell::Formula]])",
+      "Tags": [
+        "Convert",
+        "kabob",
+        "kebab"
+      ],
+      "FormulaDependencies": [
+        "KebabCase.lambda",
+        "Words.lambda"
+      ]
+    },
+    {
+      "Name": "Convert to Snake Case",
+      "Description": "Convert the text in selection to Snake Case (lower case, separated by underscores)",
+      "Type": "ExcelFormulaCommand",
+      "Formula": "=SnakeCase([[ActiveCell::Formula]])",
+      "FormulaDependencies": [
+        "SnakeCase.lambda",
+        "Words.lambda"
+      ]
+    },
     {
       "Name": "Ordinal Date",
       "Description": "Convert dates into long format including the ordinal suffixes \"th\", \"st\", \"nd\" and \"rd\"",
@@ -1962,6 +2693,20 @@
       "Location": "GetOrdinalSuffix"
     },
     {
+      "Name": "KabobCase.lambda",
+      "Description": "Definition of KabobCase lambda function.",
+      "Type": "ExcelNameText",
+      "ContentType": "ExcelFormula",
+      "Location": "KabobCase"
+    },
+    {
+      "Name": "KebabCase.lambda",
+      "Description": "Definition of KebabCase lambda function.",
+      "Type": "ExcelNameText",
+      "ContentType": "ExcelFormula",
+      "Location": "KebabCase"
+    },
+    {
       "Name": "OrdinalDate.lambda",
       "Description": "Definition of OrdinalDate lambda function.",
       "Type": "ExcelNameText",
@@ -1988,38 +2733,32 @@
       "Type": "ExcelNameText",
       "ContentType": "ExcelFormula",
       "Location": "ShowFormulas"
+    },
+    {
+      "Name": "SnakeCase.lambda",
+      "Description": "Definition of SnakeCase lambda function.",
+      "Type": "ExcelNameText",
+      "ContentType": "ExcelFormula",
+      "Location": "SnakeCase"
+    },
+    {
+      "Name": "Words.lambda",
+      "Description": "Definition of Words lambda function.",
+      "Type": "ExcelNameText",
+      "ContentType": "ExcelFormula",
+      "Location": "Words"
     }
   ]
 }
 ]]></JSON>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item10.xml><?xml version="1.0" encoding="utf-8"?>
 <Text><![CDATA[
 ]]></Text>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<Text><![CDATA[
-]]></Text>
-</file>
-
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<Text><![CDATA[
-]]></Text>
-</file>
-
-<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
-<Text><![CDATA[
-]]></Text>
-</file>
-
-<file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
-<Text><![CDATA[
-]]></Text>
-</file>
-
-<file path=customXml/item7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item11.xml><?xml version="1.0" encoding="utf-8"?>
 <writeIndexDataTable>
   <xs:schema xmlns="" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:msdata="urn:schemas-microsoft-com:xml-msdata" id="writeIndexDataTable">
     <xs:element name="writeIndexDataTable" msdata:IsDataSet="true" msdata:UseCurrentLocale="true">
@@ -2052,8 +2791,8 @@
     <ItemName>HotkeyCommands</ItemName>
     <ItemDescription/>
     <ItemType>JSON</ItemType>
-    <LastUpdated>19/06/2025 12:43:52 +01:00</LastUpdated>
-    <CustomXmlPartGuid>{82A4ABE1-8856-43F8-A28F-AC39E0F97CCB}</CustomXmlPartGuid>
+    <LastUpdated>19/06/2025 15:26:23 +01:00</LastUpdated>
+    <CustomXmlPartGuid>{EB259F73-0872-4AE0-91E7-3F98382A8DA8}</CustomXmlPartGuid>
   </CustomXmlPartIndex>
   <CustomXmlPartIndex>
     <CollectionName>HotkeyCommands</CollectionName>
@@ -2061,8 +2800,17 @@
     <ItemDescription/>
     <ItemType>Text</ItemType>
     <ItemSubtype/>
-    <LastUpdated>19/06/2025 12:43:52 +01:00</LastUpdated>
-    <CustomXmlPartGuid>{5DDC3BA1-CD3D-4622-BF15-0EB1BFA9B1B2}</CustomXmlPartGuid>
+    <LastUpdated>19/06/2025 15:26:23 +01:00</LastUpdated>
+    <CustomXmlPartGuid>{C230EA9D-850B-4245-9F0B-75B41EA47DCD}</CustomXmlPartGuid>
+  </CustomXmlPartIndex>
+  <CustomXmlPartIndex>
+    <CollectionName>HotkeyCommands</CollectionName>
+    <ItemName>KebabCase.lambda</ItemName>
+    <ItemDescription/>
+    <ItemType>Text</ItemType>
+    <ItemSubtype/>
+    <LastUpdated>19/06/2025 15:26:23 +01:00</LastUpdated>
+    <CustomXmlPartGuid>{8D6F1B1E-026B-4230-8FEE-F3808BAC19A4}</CustomXmlPartGuid>
   </CustomXmlPartIndex>
   <CustomXmlPartIndex>
     <CollectionName>HotkeyCommands</CollectionName>
@@ -2070,8 +2818,8 @@
     <ItemDescription/>
     <ItemType>Text</ItemType>
     <ItemSubtype/>
-    <LastUpdated>19/06/2025 12:43:52 +01:00</LastUpdated>
-    <CustomXmlPartGuid>{AD4B1954-17ED-4764-BFDE-4B72F98C5FFE}</CustomXmlPartGuid>
+    <LastUpdated>19/06/2025 15:26:23 +01:00</LastUpdated>
+    <CustomXmlPartGuid>{1207116D-20EB-4E06-A736-6D0B046579C8}</CustomXmlPartGuid>
   </CustomXmlPartIndex>
   <CustomXmlPartIndex>
     <CollectionName>HotkeyCommands</CollectionName>
@@ -2079,8 +2827,8 @@
     <ItemDescription/>
     <ItemType>Text</ItemType>
     <ItemSubtype/>
-    <LastUpdated>19/06/2025 12:43:52 +01:00</LastUpdated>
-    <CustomXmlPartGuid>{0183378B-3F2C-4E1D-985B-26F335D3ACF0}</CustomXmlPartGuid>
+    <LastUpdated>19/06/2025 15:26:23 +01:00</LastUpdated>
+    <CustomXmlPartGuid>{45C38149-7830-4853-A705-29BCF9AEFB8D}</CustomXmlPartGuid>
   </CustomXmlPartIndex>
   <CustomXmlPartIndex>
     <CollectionName>HotkeyCommands</CollectionName>
@@ -2088,8 +2836,8 @@
     <ItemDescription/>
     <ItemType>Text</ItemType>
     <ItemSubtype/>
-    <LastUpdated>19/06/2025 12:43:52 +01:00</LastUpdated>
-    <CustomXmlPartGuid>{6C7810E5-AF51-4D93-9261-5A92615966F8}</CustomXmlPartGuid>
+    <LastUpdated>19/06/2025 15:26:23 +01:00</LastUpdated>
+    <CustomXmlPartGuid>{F02AB860-EEAD-43DB-8563-F1FFD74F1E6F}</CustomXmlPartGuid>
   </CustomXmlPartIndex>
   <CustomXmlPartIndex>
     <CollectionName>HotkeyCommands</CollectionName>
@@ -2097,54 +2845,155 @@
     <ItemDescription/>
     <ItemType>Text</ItemType>
     <ItemSubtype/>
-    <LastUpdated>19/06/2025 12:43:52 +01:00</LastUpdated>
-    <CustomXmlPartGuid>{4BC3F9A5-875C-47E9-96A3-7F0478F364DD}</CustomXmlPartGuid>
+    <LastUpdated>19/06/2025 15:26:23 +01:00</LastUpdated>
+    <CustomXmlPartGuid>{0AAA429B-206E-4EAE-B790-AAD07B77E512}</CustomXmlPartGuid>
+  </CustomXmlPartIndex>
+  <CustomXmlPartIndex>
+    <CollectionName>HotkeyCommands</CollectionName>
+    <ItemName>KabobCase.lambda</ItemName>
+    <ItemDescription/>
+    <ItemType>Text</ItemType>
+    <ItemSubtype/>
+    <LastUpdated>19/06/2025 15:26:23 +01:00</LastUpdated>
+    <CustomXmlPartGuid>{0053F7D5-D036-493C-A3C1-440C87D50BFC}</CustomXmlPartGuid>
+  </CustomXmlPartIndex>
+  <CustomXmlPartIndex>
+    <CollectionName>HotkeyCommands</CollectionName>
+    <ItemName>SnakeCase.lambda</ItemName>
+    <ItemDescription/>
+    <ItemType>Text</ItemType>
+    <ItemSubtype/>
+    <LastUpdated>19/06/2025 15:26:23 +01:00</LastUpdated>
+    <CustomXmlPartGuid>{D8A61416-D790-438B-A2DA-2CF1978C8E33}</CustomXmlPartGuid>
+  </CustomXmlPartIndex>
+  <CustomXmlPartIndex>
+    <CollectionName>HotkeyCommands</CollectionName>
+    <ItemName>Words.lambda</ItemName>
+    <ItemDescription/>
+    <ItemType>Text</ItemType>
+    <ItemSubtype/>
+    <LastUpdated>19/06/2025 15:26:23 +01:00</LastUpdated>
+    <CustomXmlPartGuid>{FB2007D8-6EEC-45D5-B8AA-799201839A7C}</CustomXmlPartGuid>
   </CustomXmlPartIndex>
 </writeIndexDataTable>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<Text><![CDATA[
+]]></Text>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<Text><![CDATA[
+KebabCase = LAMBDA(input, LET(    \\LambdaName, "KebabCase",    \\CommandName, "Convert To Kebab Case",    \\Description, "Convert text in selection to kebab case.",    _Words, Words(input, 1),    _Result, TEXTJOIN("-", , LOWER(_Words)),    _Result ));
+]]></Text>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<Text><![CDATA[
+]]></Text>
+</file>
+
+<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
+<Text><![CDATA[
+]]></Text>
+</file>
+
+<file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
+<Text><![CDATA[
+]]></Text>
+</file>
+
+<file path=customXml/item7.xml><?xml version="1.0" encoding="utf-8"?>
+<Text><![CDATA[
+]]></Text>
+</file>
+
+<file path=customXml/item8.xml><?xml version="1.0" encoding="utf-8"?>
+<Text><![CDATA[
+/*Convert text in selection to kabob case.  */
+KabobCase = LAMBDA(input, LET(
+   \\LambdaName, "KabobCase",
+   \\CommandName, "Convert To Kabob Case",
+   \\Description, "Convert text in selection to kabob case.",
+   _Words, Words(input, 1),
+   _Result, TEXTJOIN("-", , LOWER(_Words)),
+   _Result
+));
+]]></Text>
+</file>
+
+<file path=customXml/item9.xml><?xml version="1.0" encoding="utf-8"?>
+<Text><![CDATA[
+]]></Text>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{82A4ABE1-8856-43F8-A28F-AC39E0F97CCB}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EB259F73-0872-4AE0-91E7-3F98382A8DA8}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5DDC3BA1-CD3D-4622-BF15-0EB1BFA9B1B2}">
+<file path=customXml/itemProps10.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FB2007D8-6EEC-45D5-B8AA-799201839A7C}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AD4B1954-17ED-4764-BFDE-4B72F98C5FFE}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0183378B-3F2C-4E1D-985B-26F335D3ACF0}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C7810E5-AF51-4D93-9261-5A92615966F8}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4BC3F9A5-875C-47E9-96A3-7F0478F364DD}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps7.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1204F272-A591-4DB1-B3FD-EEAE2537F3C7}">
+<file path=customXml/itemProps11.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{90AC157C-EA33-48C5-8B80-AE693A57DED9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri=""/>
     <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
     <ds:schemaRef ds:uri="urn:schemas-microsoft-com:xml-msdata"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C230EA9D-850B-4245-9F0B-75B41EA47DCD}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8D6F1B1E-026B-4230-8FEE-F3808BAC19A4}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1207116D-20EB-4E06-A736-6D0B046579C8}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{45C38149-7830-4853-A705-29BCF9AEFB8D}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F02AB860-EEAD-43DB-8563-F1FFD74F1E6F}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps7.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0AAA429B-206E-4EAE-B790-AAD07B77E512}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps8.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0053F7D5-D036-493C-A3C1-440C87D50BFC}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps9.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D8A61416-D790-438B-A2DA-2CF1978C8E33}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
 </file>
--- a/Denis Robot.xlsx
+++ b/Denis Robot.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://blu3couk-my.sharepoint.com/personal/denis_roberts_blu-3_co_uk/OneDrive/Training and Reference/Textbooks/OA Robot/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/17d5bd86d3906b59/Documents/GitHub/denis-robot/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="791" documentId="8_{30A52B8C-868B-49E7-87D0-729D8AE88A18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FA92F4CD-EFFE-4352-BC06-4B937F959162}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{765FE789-A39F-400E-91D1-04A3BF518648}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{23D6A8CF-57FE-4A34-BA04-D39890A7F850}"/>
+    <workbookView xWindow="38445" yWindow="945" windowWidth="21600" windowHeight="11175" xr2:uid="{23D6A8CF-57FE-4A34-BA04-D39890A7F850}"/>
   </bookViews>
   <sheets>
     <sheet name="Commands" sheetId="5" r:id="rId1"/>
@@ -36,6 +36,7 @@
     <definedName name="_AtRisk_SimSetting_StdRecalcBehavior" hidden="1">0</definedName>
     <definedName name="_AtRisk_SimSetting_StdRecalcWithoutRiskStatic" hidden="1">0</definedName>
     <definedName name="_AtRisk_SimSetting_StdRecalcWithoutRiskStaticPercentile" hidden="1">0.5</definedName>
+    <definedName name="Character">_xlfn.LAMBDA(_xlpm.text,_xlop.spill_down,_xlop.chunk_size, _xlfn.LET(    _xlpm.\\LambdaName, "Characters",    _xlpm._ChunkSize, IF(_xlpm.chunk_size = 0, 1, _xlpm.chunk_size),    _xlpm._Pattern, "(\X{" &amp; _xlpm._ChunkSize &amp; "})",    _xlpm._Characters, _xlfn.REGEXEXTRACT(_xlpm.text, _xlpm._Pattern, 1),    _xlpm._Transpose, IF(_xlfn.ISOMITTED(_xlpm.spill_down), FALSE, _xlpm.spill_down),    _xlpm._Result, IF(_xlpm._Transpose, TRANSPOSE(_xlpm._Characters), _xlpm._Characters),    _xlpm._Result ))</definedName>
     <definedName name="IQ_FWD_CY" hidden="1">10001</definedName>
     <definedName name="IQ_FWD_CY1" hidden="1">10002</definedName>
     <definedName name="IQ_FWD_CY2" hidden="1">10003</definedName>
@@ -148,7 +149,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="57">
   <si>
     <t>Number</t>
   </si>
@@ -304,6 +305,21 @@
   </si>
   <si>
     <t>Naming convention (programming) - Wikipedia</t>
+  </si>
+  <si>
+    <t>Normal text 👪 here</t>
+  </si>
+  <si>
+    <t>Character</t>
+  </si>
+  <si>
+    <t>Change Case</t>
+  </si>
+  <si>
+    <t>Display text (starting from any case) in one of the chosen cases</t>
+  </si>
+  <si>
+    <t>Breaks text into chunks of n characters. Treats multi-character emojis as single characters</t>
   </si>
 </sst>
 </file>
@@ -553,6 +569,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -873,21 +893,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAD3ECE6-BF56-4000-86E1-CABE04FD5F19}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" customWidth="1"/>
-    <col min="2" max="2" width="27.7109375" customWidth="1"/>
+    <col min="1" max="1" width="2.7265625" customWidth="1"/>
+    <col min="2" max="2" width="27.7265625" customWidth="1"/>
     <col min="3" max="3" width="17" customWidth="1"/>
-    <col min="4" max="4" width="135.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="135.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.5">
       <c r="A1" s="14" t="s">
         <v>12</v>
       </c>
@@ -895,13 +915,13 @@
       <c r="C1" s="2"/>
       <c r="D1" s="15"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="16"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="15"/>
     </row>
-    <row r="3" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A3" s="17"/>
       <c r="B3" s="17" t="s">
         <v>14</v>
@@ -909,13 +929,13 @@
       <c r="C3" s="17"/>
       <c r="D3" s="17"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="16"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="15"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="16"/>
       <c r="B5" s="2" t="s">
         <v>10</v>
@@ -925,7 +945,7 @@
       </c>
       <c r="D5" s="15"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B6" s="2" t="s">
         <v>9</v>
       </c>
@@ -936,7 +956,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B7" s="2" t="s">
         <v>11</v>
       </c>
@@ -947,14 +967,14 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B15" s="17" t="s">
         <v>19</v>
       </c>
       <c r="C15" s="17"/>
       <c r="D15" s="17"/>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B17" s="2" t="s">
         <v>18</v>
       </c>
@@ -965,7 +985,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B18" s="2" t="s">
         <v>29</v>
       </c>
@@ -976,7 +996,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B19" s="2" t="s">
         <v>27</v>
       </c>
@@ -987,19 +1007,30 @@
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B20" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B22" s="17" t="s">
         <v>21</v>
       </c>
       <c r="C22" s="17"/>
       <c r="D22" s="17"/>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B24" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B25" t="s">
         <v>23</v>
       </c>
@@ -1007,7 +1038,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B26" t="s">
         <v>24</v>
       </c>
@@ -1015,9 +1046,20 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B28" t="s">
         <v>50</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B31" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C31" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D31" s="15" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1053,38 +1095,38 @@
       <selection sqref="A1:A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="7"/>
-    <col min="3" max="3" width="7.85546875" style="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.7109375" style="12" customWidth="1"/>
-    <col min="5" max="5" width="7.7109375" style="12" customWidth="1"/>
+    <col min="1" max="1" width="2.7265625" customWidth="1"/>
+    <col min="2" max="2" width="9.1796875" style="7"/>
+    <col min="3" max="3" width="7.81640625" style="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.7265625" style="12" customWidth="1"/>
+    <col min="5" max="5" width="7.7265625" style="12" customWidth="1"/>
     <col min="6" max="6" width="7" style="12" customWidth="1"/>
-    <col min="7" max="7" width="4.7109375" style="7" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" style="7" customWidth="1"/>
-    <col min="9" max="9" width="10.42578125" style="7" customWidth="1"/>
-    <col min="10" max="10" width="4.7109375" customWidth="1"/>
-    <col min="11" max="11" width="11.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="2.7109375" customWidth="1"/>
-    <col min="13" max="13" width="27.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="4.7109375" customWidth="1"/>
-    <col min="15" max="15" width="53.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="26.5703125" customWidth="1"/>
-    <col min="20" max="20" width="10.42578125" customWidth="1"/>
+    <col min="7" max="7" width="4.7265625" style="7" customWidth="1"/>
+    <col min="8" max="8" width="9.81640625" style="7" customWidth="1"/>
+    <col min="9" max="9" width="10.453125" style="7" customWidth="1"/>
+    <col min="10" max="10" width="4.7265625" customWidth="1"/>
+    <col min="11" max="11" width="11.54296875" style="7" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="2.7265625" customWidth="1"/>
+    <col min="13" max="13" width="27.54296875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="4.7265625" customWidth="1"/>
+    <col min="15" max="15" width="53.7265625" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="26.54296875" customWidth="1"/>
+    <col min="20" max="20" width="10.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:20" ht="21" x14ac:dyDescent="0.5">
       <c r="A1" s="14" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A2" s="19" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:20" s="4" customFormat="1" ht="34.5" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:20" s="4" customFormat="1" ht="32" x14ac:dyDescent="0.5">
       <c r="B5" s="5" t="s">
         <v>0</v>
       </c>
@@ -1120,7 +1162,7 @@
       <c r="P5" s="3"/>
       <c r="Q5" s="3"/>
     </row>
-    <row r="6" spans="1:20" s="4" customFormat="1" ht="17.25" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:20" s="4" customFormat="1" ht="16" x14ac:dyDescent="0.5">
       <c r="B6" s="5"/>
       <c r="C6" s="10"/>
       <c r="D6" s="10"/>
@@ -1137,7 +1179,7 @@
       <c r="P6" s="3"/>
       <c r="Q6" s="3"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
       <c r="B7" s="6" cm="1">
         <f t="array" ref="B7:B37">_xlfn.SEQUENCE(31)</f>
         <v>1</v>
@@ -1177,7 +1219,7 @@
       </c>
       <c r="T7" s="1"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
       <c r="B8" s="6">
         <v>2</v>
       </c>
@@ -1209,7 +1251,7 @@
         <v>F7: =SWITCH(MOD(B7#, 10), 1, "st", 2, "nd", 3, "rd", "th")</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
       <c r="B9" s="6">
         <v>3</v>
       </c>
@@ -1237,7 +1279,7 @@
       </c>
       <c r="N9" s="1"/>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
       <c r="B10" s="6">
         <v>4</v>
       </c>
@@ -1269,7 +1311,7 @@
         <v>H7: =OrdinalSuffix(B7#)</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
       <c r="B11" s="6">
         <v>5</v>
       </c>
@@ -1300,7 +1342,7 @@
         <v>I7: =OrdinalNumber(B7#)</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
       <c r="B12" s="6">
         <v>6</v>
       </c>
@@ -1327,7 +1369,7 @@
       </c>
       <c r="N12" s="1"/>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
       <c r="B13" s="6">
         <v>7</v>
       </c>
@@ -1358,7 +1400,7 @@
         <v>M7: =OrdinalDate(K7#)</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.35">
       <c r="B14" s="6">
         <v>8</v>
       </c>
@@ -1385,7 +1427,7 @@
       </c>
       <c r="N14" s="1"/>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
       <c r="B15" s="6">
         <v>9</v>
       </c>
@@ -1412,7 +1454,7 @@
       </c>
       <c r="N15" s="1"/>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.35">
       <c r="B16" s="6">
         <v>10</v>
       </c>
@@ -1439,7 +1481,7 @@
       </c>
       <c r="N16" s="1"/>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B17" s="6">
         <v>11</v>
       </c>
@@ -1466,7 +1508,7 @@
       </c>
       <c r="N17" s="1"/>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B18" s="6">
         <v>12</v>
       </c>
@@ -1493,7 +1535,7 @@
       </c>
       <c r="N18" s="1"/>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B19" s="6">
         <v>13</v>
       </c>
@@ -1520,7 +1562,7 @@
       </c>
       <c r="N19" s="1"/>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B20" s="6">
         <v>14</v>
       </c>
@@ -1547,7 +1589,7 @@
       </c>
       <c r="N20" s="1"/>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B21" s="6">
         <v>15</v>
       </c>
@@ -1574,7 +1616,7 @@
       </c>
       <c r="N21" s="1"/>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B22" s="6">
         <v>16</v>
       </c>
@@ -1601,7 +1643,7 @@
       </c>
       <c r="N22" s="1"/>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B23" s="6">
         <v>17</v>
       </c>
@@ -1628,7 +1670,7 @@
       </c>
       <c r="N23" s="1"/>
     </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B24" s="6">
         <v>18</v>
       </c>
@@ -1655,7 +1697,7 @@
       </c>
       <c r="N24" s="1"/>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B25" s="6">
         <v>19</v>
       </c>
@@ -1682,7 +1724,7 @@
       </c>
       <c r="N25" s="1"/>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B26" s="6">
         <v>20</v>
       </c>
@@ -1709,7 +1751,7 @@
       </c>
       <c r="N26" s="1"/>
     </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B27" s="6">
         <v>21</v>
       </c>
@@ -1736,7 +1778,7 @@
       </c>
       <c r="N27" s="1"/>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B28" s="6">
         <v>22</v>
       </c>
@@ -1763,7 +1805,7 @@
       </c>
       <c r="N28" s="1"/>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B29" s="6">
         <v>23</v>
       </c>
@@ -1790,7 +1832,7 @@
       </c>
       <c r="N29" s="1"/>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B30" s="6">
         <v>24</v>
       </c>
@@ -1817,7 +1859,7 @@
       </c>
       <c r="N30" s="1"/>
     </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B31" s="6">
         <v>25</v>
       </c>
@@ -1844,7 +1886,7 @@
       </c>
       <c r="N31" s="1"/>
     </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B32" s="6">
         <v>26</v>
       </c>
@@ -1871,7 +1913,7 @@
       </c>
       <c r="N32" s="1"/>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B33" s="6">
         <v>27</v>
       </c>
@@ -1898,7 +1940,7 @@
       </c>
       <c r="N33" s="1"/>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B34" s="6">
         <v>28</v>
       </c>
@@ -1925,7 +1967,7 @@
       </c>
       <c r="N34" s="1"/>
     </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B35" s="6">
         <v>29</v>
       </c>
@@ -1952,7 +1994,7 @@
       </c>
       <c r="N35" s="1"/>
     </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B36" s="6">
         <v>30</v>
       </c>
@@ -1979,7 +2021,7 @@
       </c>
       <c r="N36" s="1"/>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B37" s="6">
         <v>31</v>
       </c>
@@ -2018,45 +2060,47 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C3A5B8C-C24B-4DA3-ADC1-F211CBF4BEF6}">
-  <dimension ref="A1:S20"/>
+  <dimension ref="A1:V21"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="O29" sqref="O29"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="2.7109375" customWidth="1"/>
-    <col min="3" max="3" width="15.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.7109375" style="7" customWidth="1"/>
-    <col min="5" max="5" width="18.28515625" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.28515625" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.7109375" style="7" customWidth="1"/>
+    <col min="2" max="2" width="2.7265625" customWidth="1"/>
+    <col min="3" max="3" width="15.54296875" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.7265625" style="7" customWidth="1"/>
+    <col min="5" max="5" width="18.26953125" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.26953125" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.1796875" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.7265625" style="7" customWidth="1"/>
     <col min="9" max="9" width="15" style="7" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.28515625" style="7" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="4.7109375" style="7" customWidth="1"/>
-    <col min="14" max="14" width="24.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="25.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="2.7109375" customWidth="1"/>
-    <col min="17" max="17" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.26953125" style="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.81640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.1796875" style="7" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4.7265625" style="7" customWidth="1"/>
+    <col min="14" max="14" width="24.54296875" style="7" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="25.1796875" style="7" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="2.7265625" customWidth="1"/>
+    <col min="17" max="17" width="7.7265625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="4" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="4.81640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="4.6328125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="4.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:22" ht="21" x14ac:dyDescent="0.5">
       <c r="A1" s="14" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A2" s="19" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.35">
       <c r="C3" s="22" t="s">
         <v>36</v>
       </c>
@@ -2093,10 +2137,13 @@
       <c r="Q3" s="22" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="V3" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.35">
       <c r="C4" s="7" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>32</v>
@@ -2128,17 +2175,24 @@
         <v>NORMAL_TEXT_HERE</v>
       </c>
       <c r="Q4" t="str" cm="1">
-        <f t="array" ref="Q4:S4">Words(C4)</f>
+        <f t="array" ref="Q4:T4">Words(C4)</f>
         <v>Normal</v>
       </c>
       <c r="R4" t="str">
         <v>text</v>
       </c>
       <c r="S4" t="str">
+        <v>👪</v>
+      </c>
+      <c r="T4" t="str">
         <v>here</v>
       </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="V4" t="str" cm="1">
+        <f t="array" ref="V4:V21">Character(C4,1)</f>
+        <v>N</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.35">
       <c r="C5" s="7" t="s">
         <v>31</v>
       </c>
@@ -2179,8 +2233,11 @@
       <c r="S5" t="str">
         <v>here</v>
       </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="V5" t="str">
+        <v>o</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.35">
       <c r="C6" s="7" t="s">
         <v>31</v>
       </c>
@@ -2221,8 +2278,11 @@
       <c r="S6" t="str">
         <v>here</v>
       </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="V6" t="str">
+        <v>r</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.35">
       <c r="C7" s="7" t="s">
         <v>31</v>
       </c>
@@ -2263,8 +2323,11 @@
       <c r="S7" t="str">
         <v>here</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="V7" t="str">
+        <v>m</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.35">
       <c r="C8" s="7" t="s">
         <v>31</v>
       </c>
@@ -2305,8 +2368,11 @@
       <c r="S8" t="str">
         <v>here</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="V8" t="str">
+        <v>a</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.35">
       <c r="C9" s="7" t="s">
         <v>31</v>
       </c>
@@ -2347,8 +2413,11 @@
       <c r="S9" t="str">
         <v>here</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="V9" t="str">
+        <v>l</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.35">
       <c r="C10" s="7" t="s">
         <v>31</v>
       </c>
@@ -2389,8 +2458,11 @@
       <c r="S10" t="str">
         <v>here</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="V10" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.35">
       <c r="C11" s="7" t="s">
         <v>31</v>
       </c>
@@ -2431,8 +2503,11 @@
       <c r="S11" t="str">
         <v>here</v>
       </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="V11" t="str">
+        <v>t</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.35">
       <c r="C12" s="7" t="s">
         <v>31</v>
       </c>
@@ -2473,8 +2548,11 @@
       <c r="S12" t="str">
         <v>here</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="V12" t="str">
+        <v>e</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.35">
       <c r="C13" s="7" t="s">
         <v>31</v>
       </c>
@@ -2515,8 +2593,11 @@
       <c r="S13" t="str">
         <v>here</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="V13" t="str">
+        <v>x</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.35">
       <c r="C14" s="7" t="s">
         <v>31</v>
       </c>
@@ -2557,8 +2638,11 @@
       <c r="S14" t="str">
         <v>here</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="V14" t="str">
+        <v>t</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.35">
       <c r="C15" s="7" t="s">
         <v>31</v>
       </c>
@@ -2599,10 +2683,41 @@
       <c r="S15" t="str">
         <v>here</v>
       </c>
-    </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="V15" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="V16" t="str">
+        <v>👪</v>
+      </c>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.35">
+      <c r="V17" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="18" spans="3:22" x14ac:dyDescent="0.35">
+      <c r="V18" t="str">
+        <v>h</v>
+      </c>
+    </row>
+    <row r="19" spans="3:22" x14ac:dyDescent="0.35">
+      <c r="V19" t="str">
+        <v>e</v>
+      </c>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.35">
       <c r="C20" s="21" t="s">
         <v>51</v>
+      </c>
+      <c r="V20" t="str">
+        <v>r</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.35">
+      <c r="V21" t="str">
+        <v>e</v>
       </c>
     </row>
   </sheetData>
@@ -2619,6 +2734,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<Text><![CDATA[
+KebabCase = LAMBDA(input, LET(    \\LambdaName, "KebabCase",    \\CommandName, "Convert To Kebab Case",    \\Description, "Convert text in selection to kebab case.",    _Words, Words(input, 1),    _Result, TEXTJOIN("-", , LOWER(_Words)),    _Result ));
+]]></Text>
+</file>
+
+<file path=customXml/item10.xml><?xml version="1.0" encoding="utf-8"?>
 <JSON><![CDATA[
 {
   "Commands": [
@@ -2646,6 +2767,22 @@
       "FormulaDependencies": [
         "SnakeCase.lambda",
         "Words.lambda"
+      ]
+    },
+    {
+      "Name": "List Characters",
+      "Description": "Spill characters of text in active cell to below.",
+      "Type": "ExcelFormulaCommand",
+      "UserContextFilter": "ExcelActiveCellValueIsText",
+      "LaunchCodes": [
+        "c"
+      ],
+      "Formula": "=Characters([[ActiveCell::Formula]], TRUE)",
+      "Tags": [
+        "Split"
+      ],
+      "FormulaDependencies": [
+        "Characters.lambda"
       ]
     },
     {
@@ -2685,6 +2822,13 @@
     }
   ],
   "Texts": [
+    {
+      "Name": "Characters.lambda",
+      "Description": "Definition of Characters lambda function.",
+      "Type": "ExcelNameText",
+      "ContentType": "ExcelFormula",
+      "Location": "Characters"
+    },
     {
       "Name": "GetOrdinalSuffix.lambda",
       "Description": "Definition of GetOrdinalSuffix lambda function.",
@@ -2753,12 +2897,22 @@
 ]]></JSON>
 </file>
 
-<file path=customXml/item10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item11.xml><?xml version="1.0" encoding="utf-8"?>
 <Text><![CDATA[
 ]]></Text>
 </file>
 
-<file path=customXml/item11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item12.xml><?xml version="1.0" encoding="utf-8"?>
+<Text><![CDATA[
+]]></Text>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<Text><![CDATA[
+]]></Text>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <writeIndexDataTable>
   <xs:schema xmlns="" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:msdata="urn:schemas-microsoft-com:xml-msdata" id="writeIndexDataTable">
     <xs:element name="writeIndexDataTable" msdata:IsDataSet="true" msdata:UseCurrentLocale="true">
@@ -2791,8 +2945,8 @@
     <ItemName>HotkeyCommands</ItemName>
     <ItemDescription/>
     <ItemType>JSON</ItemType>
-    <LastUpdated>19/06/2025 15:26:23 +01:00</LastUpdated>
-    <CustomXmlPartGuid>{EB259F73-0872-4AE0-91E7-3F98382A8DA8}</CustomXmlPartGuid>
+    <LastUpdated>30/11/2025 13:17:16 +00:00</LastUpdated>
+    <CustomXmlPartGuid>{DF6CEFF3-CBD7-4877-9A1F-515FC9F8190A}</CustomXmlPartGuid>
   </CustomXmlPartIndex>
   <CustomXmlPartIndex>
     <CollectionName>HotkeyCommands</CollectionName>
@@ -2800,8 +2954,17 @@
     <ItemDescription/>
     <ItemType>Text</ItemType>
     <ItemSubtype/>
-    <LastUpdated>19/06/2025 15:26:23 +01:00</LastUpdated>
-    <CustomXmlPartGuid>{C230EA9D-850B-4245-9F0B-75B41EA47DCD}</CustomXmlPartGuid>
+    <LastUpdated>30/11/2025 13:17:16 +00:00</LastUpdated>
+    <CustomXmlPartGuid>{B76E95C4-C168-4A1A-94E6-F3ECDDF10B72}</CustomXmlPartGuid>
+  </CustomXmlPartIndex>
+  <CustomXmlPartIndex>
+    <CollectionName>HotkeyCommands</CollectionName>
+    <ItemName>KabobCase.lambda</ItemName>
+    <ItemDescription/>
+    <ItemType>Text</ItemType>
+    <ItemSubtype/>
+    <LastUpdated>30/11/2025 13:17:16 +00:00</LastUpdated>
+    <CustomXmlPartGuid>{16275050-99E3-419A-A47F-03838C5A7255}</CustomXmlPartGuid>
   </CustomXmlPartIndex>
   <CustomXmlPartIndex>
     <CollectionName>HotkeyCommands</CollectionName>
@@ -2809,8 +2972,8 @@
     <ItemDescription/>
     <ItemType>Text</ItemType>
     <ItemSubtype/>
-    <LastUpdated>19/06/2025 15:26:23 +01:00</LastUpdated>
-    <CustomXmlPartGuid>{8D6F1B1E-026B-4230-8FEE-F3808BAC19A4}</CustomXmlPartGuid>
+    <LastUpdated>30/11/2025 13:17:16 +00:00</LastUpdated>
+    <CustomXmlPartGuid>{267EEF6D-B4C0-4564-A809-C4C772C9F30B}</CustomXmlPartGuid>
   </CustomXmlPartIndex>
   <CustomXmlPartIndex>
     <CollectionName>HotkeyCommands</CollectionName>
@@ -2818,8 +2981,8 @@
     <ItemDescription/>
     <ItemType>Text</ItemType>
     <ItemSubtype/>
-    <LastUpdated>19/06/2025 15:26:23 +01:00</LastUpdated>
-    <CustomXmlPartGuid>{1207116D-20EB-4E06-A736-6D0B046579C8}</CustomXmlPartGuid>
+    <LastUpdated>30/11/2025 13:17:16 +00:00</LastUpdated>
+    <CustomXmlPartGuid>{69BA3F21-EEC8-4A50-A729-2FE76B713772}</CustomXmlPartGuid>
   </CustomXmlPartIndex>
   <CustomXmlPartIndex>
     <CollectionName>HotkeyCommands</CollectionName>
@@ -2827,8 +2990,8 @@
     <ItemDescription/>
     <ItemType>Text</ItemType>
     <ItemSubtype/>
-    <LastUpdated>19/06/2025 15:26:23 +01:00</LastUpdated>
-    <CustomXmlPartGuid>{45C38149-7830-4853-A705-29BCF9AEFB8D}</CustomXmlPartGuid>
+    <LastUpdated>30/11/2025 13:17:16 +00:00</LastUpdated>
+    <CustomXmlPartGuid>{E41DB631-CF5E-46F5-863C-81A5D7B6731B}</CustomXmlPartGuid>
   </CustomXmlPartIndex>
   <CustomXmlPartIndex>
     <CollectionName>HotkeyCommands</CollectionName>
@@ -2836,8 +2999,8 @@
     <ItemDescription/>
     <ItemType>Text</ItemType>
     <ItemSubtype/>
-    <LastUpdated>19/06/2025 15:26:23 +01:00</LastUpdated>
-    <CustomXmlPartGuid>{F02AB860-EEAD-43DB-8563-F1FFD74F1E6F}</CustomXmlPartGuid>
+    <LastUpdated>30/11/2025 13:17:16 +00:00</LastUpdated>
+    <CustomXmlPartGuid>{F21C56E0-E7D5-4306-BCB6-3A6A404E8EC8}</CustomXmlPartGuid>
   </CustomXmlPartIndex>
   <CustomXmlPartIndex>
     <CollectionName>HotkeyCommands</CollectionName>
@@ -2845,17 +3008,8 @@
     <ItemDescription/>
     <ItemType>Text</ItemType>
     <ItemSubtype/>
-    <LastUpdated>19/06/2025 15:26:23 +01:00</LastUpdated>
-    <CustomXmlPartGuid>{0AAA429B-206E-4EAE-B790-AAD07B77E512}</CustomXmlPartGuid>
-  </CustomXmlPartIndex>
-  <CustomXmlPartIndex>
-    <CollectionName>HotkeyCommands</CollectionName>
-    <ItemName>KabobCase.lambda</ItemName>
-    <ItemDescription/>
-    <ItemType>Text</ItemType>
-    <ItemSubtype/>
-    <LastUpdated>19/06/2025 15:26:23 +01:00</LastUpdated>
-    <CustomXmlPartGuid>{0053F7D5-D036-493C-A3C1-440C87D50BFC}</CustomXmlPartGuid>
+    <LastUpdated>30/11/2025 13:17:16 +00:00</LastUpdated>
+    <CustomXmlPartGuid>{339C4442-212A-4C4C-9778-AF215299252D}</CustomXmlPartGuid>
   </CustomXmlPartIndex>
   <CustomXmlPartIndex>
     <CollectionName>HotkeyCommands</CollectionName>
@@ -2863,8 +3017,8 @@
     <ItemDescription/>
     <ItemType>Text</ItemType>
     <ItemSubtype/>
-    <LastUpdated>19/06/2025 15:26:23 +01:00</LastUpdated>
-    <CustomXmlPartGuid>{D8A61416-D790-438B-A2DA-2CF1978C8E33}</CustomXmlPartGuid>
+    <LastUpdated>30/11/2025 13:17:16 +00:00</LastUpdated>
+    <CustomXmlPartGuid>{50086A64-CAEB-40DE-B279-9B48AF381BC5}</CustomXmlPartGuid>
   </CustomXmlPartIndex>
   <CustomXmlPartIndex>
     <CollectionName>HotkeyCommands</CollectionName>
@@ -2872,44 +3026,22 @@
     <ItemDescription/>
     <ItemType>Text</ItemType>
     <ItemSubtype/>
-    <LastUpdated>19/06/2025 15:26:23 +01:00</LastUpdated>
-    <CustomXmlPartGuid>{FB2007D8-6EEC-45D5-B8AA-799201839A7C}</CustomXmlPartGuid>
+    <LastUpdated>30/11/2025 13:17:16 +00:00</LastUpdated>
+    <CustomXmlPartGuid>{8E81A673-B03F-428D-9491-83DF6610F402}</CustomXmlPartGuid>
+  </CustomXmlPartIndex>
+  <CustomXmlPartIndex>
+    <CollectionName>HotkeyCommands</CollectionName>
+    <ItemName>Characters.lambda</ItemName>
+    <ItemDescription/>
+    <ItemType>Text</ItemType>
+    <ItemSubtype/>
+    <LastUpdated>30/11/2025 13:17:16 +00:00</LastUpdated>
+    <CustomXmlPartGuid>{88B08583-7AF6-45D4-8842-E63E7D5E011D}</CustomXmlPartGuid>
   </CustomXmlPartIndex>
 </writeIndexDataTable>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<Text><![CDATA[
-]]></Text>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<Text><![CDATA[
-KebabCase = LAMBDA(input, LET(    \\LambdaName, "KebabCase",    \\CommandName, "Convert To Kebab Case",    \\Description, "Convert text in selection to kebab case.",    _Words, Words(input, 1),    _Result, TEXTJOIN("-", , LOWER(_Words)),    _Result ));
-]]></Text>
-</file>
-
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<Text><![CDATA[
-]]></Text>
-</file>
-
-<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
-<Text><![CDATA[
-]]></Text>
-</file>
-
-<file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
-<Text><![CDATA[
-]]></Text>
-</file>
-
-<file path=customXml/item7.xml><?xml version="1.0" encoding="utf-8"?>
-<Text><![CDATA[
-]]></Text>
-</file>
-
-<file path=customXml/item8.xml><?xml version="1.0" encoding="utf-8"?>
 <Text><![CDATA[
 /*Convert text in selection to kabob case.  */
 KabobCase = LAMBDA(input, LET(
@@ -2923,25 +3055,72 @@
 ]]></Text>
 </file>
 
+<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
+<Text><![CDATA[
+]]></Text>
+</file>
+
+<file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
+<Text><![CDATA[
+]]></Text>
+</file>
+
+<file path=customXml/item7.xml><?xml version="1.0" encoding="utf-8"?>
+<Text><![CDATA[
+Characters = LAMBDA(text,[spill_down],[chunk_size], LET(
+   \\LambdaName, "Characters",
+   _ChunkSize, IF(chunk_size = 0, 1, chunk_size),
+   _Pattern, "(\X{" & _ChunkSize & "})",
+   _Characters, REGEXEXTRACT(text, _Pattern, 1),
+   _Transpose, IF(ISOMITTED(spill_down), FALSE, spill_down),
+   _Result, IF(_Transpose, TRANSPOSE(_Characters), _Characters),
+   _Result
+));
+]]></Text>
+</file>
+
+<file path=customXml/item8.xml><?xml version="1.0" encoding="utf-8"?>
+<Text><![CDATA[
+]]></Text>
+</file>
+
 <file path=customXml/item9.xml><?xml version="1.0" encoding="utf-8"?>
 <Text><![CDATA[
 ]]></Text>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EB259F73-0872-4AE0-91E7-3F98382A8DA8}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{267EEF6D-B4C0-4564-A809-C4C772C9F30B}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps10.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FB2007D8-6EEC-45D5-B8AA-799201839A7C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DF6CEFF3-CBD7-4877-9A1F-515FC9F8190A}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps11.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{90AC157C-EA33-48C5-8B80-AE693A57DED9}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8E81A673-B03F-428D-9491-83DF6610F402}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps12.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{69BA3F21-EEC8-4A50-A729-2FE76B713772}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{50086A64-CAEB-40DE-B279-9B48AF381BC5}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39E344F8-F1D0-46DC-A3EF-A15B742BE6D6}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri=""/>
     <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
@@ -2950,50 +3129,38 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C230EA9D-850B-4245-9F0B-75B41EA47DCD}">
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{16275050-99E3-419A-A47F-03838C5A7255}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8D6F1B1E-026B-4230-8FEE-F3808BAC19A4}">
+<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{339C4442-212A-4C4C-9778-AF215299252D}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1207116D-20EB-4E06-A736-6D0B046579C8}">
+<file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F21C56E0-E7D5-4306-BCB6-3A6A404E8EC8}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{45C38149-7830-4853-A705-29BCF9AEFB8D}">
+<file path=customXml/itemProps7.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{88B08583-7AF6-45D4-8842-E63E7D5E011D}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F02AB860-EEAD-43DB-8563-F1FFD74F1E6F}">
+<file path=customXml/itemProps8.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B76E95C4-C168-4A1A-94E6-F3ECDDF10B72}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps7.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0AAA429B-206E-4EAE-B790-AAD07B77E512}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps8.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0053F7D5-D036-493C-A3C1-440C87D50BFC}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps9.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D8A61416-D790-438B-A2DA-2CF1978C8E33}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E41DB631-CF5E-46F5-863C-81A5D7B6731B}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
--- a/Denis Robot.xlsx
+++ b/Denis Robot.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/17d5bd86d3906b59/Documents/GitHub/denis-robot/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{765FE789-A39F-400E-91D1-04A3BF518648}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="24" documentId="8_{765FE789-A39F-400E-91D1-04A3BF518648}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D4262964-E8B5-4895-B47C-D1B8B1F19E4A}"/>
   <bookViews>
-    <workbookView xWindow="38445" yWindow="945" windowWidth="21600" windowHeight="11175" xr2:uid="{23D6A8CF-57FE-4A34-BA04-D39890A7F850}"/>
+    <workbookView xWindow="33720" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{23D6A8CF-57FE-4A34-BA04-D39890A7F850}"/>
   </bookViews>
   <sheets>
     <sheet name="Commands" sheetId="5" r:id="rId1"/>
@@ -36,7 +36,7 @@
     <definedName name="_AtRisk_SimSetting_StdRecalcBehavior" hidden="1">0</definedName>
     <definedName name="_AtRisk_SimSetting_StdRecalcWithoutRiskStatic" hidden="1">0</definedName>
     <definedName name="_AtRisk_SimSetting_StdRecalcWithoutRiskStaticPercentile" hidden="1">0.5</definedName>
-    <definedName name="Character">_xlfn.LAMBDA(_xlpm.text,_xlop.spill_down,_xlop.chunk_size, _xlfn.LET(    _xlpm.\\LambdaName, "Characters",    _xlpm._ChunkSize, IF(_xlpm.chunk_size = 0, 1, _xlpm.chunk_size),    _xlpm._Pattern, "(\X{" &amp; _xlpm._ChunkSize &amp; "})",    _xlpm._Characters, _xlfn.REGEXEXTRACT(_xlpm.text, _xlpm._Pattern, 1),    _xlpm._Transpose, IF(_xlfn.ISOMITTED(_xlpm.spill_down), FALSE, _xlpm.spill_down),    _xlpm._Result, IF(_xlpm._Transpose, TRANSPOSE(_xlpm._Characters), _xlpm._Characters),    _xlpm._Result ))</definedName>
+    <definedName name="Character" xml:space="preserve"> _xlfn.LAMBDA(_xlpm.text,_xlop.spill_down,_xlop.chunk_size, _xlfn.LET(    _xlpm.\\LambdaName, "Characters",    _xlpm._ChunkSize, IF(_xlpm.chunk_size = 0, 1, _xlpm.chunk_size),    _xlpm._Pattern, "(\X{" &amp; _xlpm._ChunkSize &amp; "})",    _xlpm._Characters, _xlfn.REGEXEXTRACT(_xlpm.text, _xlpm._Pattern, 1),    _xlpm._Transpose, IF(_xlfn.ISOMITTED(_xlpm.spill_down), FALSE, _xlpm.spill_down),    _xlpm._Result, IF(_xlpm._Transpose, TRANSPOSE(_xlpm._Characters), _xlpm._Characters),    _xlpm._Result ))</definedName>
     <definedName name="IQ_FWD_CY" hidden="1">10001</definedName>
     <definedName name="IQ_FWD_CY1" hidden="1">10002</definedName>
     <definedName name="IQ_FWD_CY2" hidden="1">10003</definedName>
@@ -895,8 +895,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView showGridLines="0" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2062,8 +2062,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C3A5B8C-C24B-4DA3-ADC1-F211CBF4BEF6}">
   <dimension ref="A1:V21"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="N18" sqref="N18"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2188,7 +2188,7 @@
         <v>here</v>
       </c>
       <c r="V4" t="str" cm="1">
-        <f t="array" ref="V4:V21">Character(C4,1)</f>
+        <f t="array" ref="V4:V21">Character(C4, 1)</f>
         <v>N</v>
       </c>
     </row>
@@ -2734,12 +2734,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<Text><![CDATA[
-KebabCase = LAMBDA(input, LET(    \\LambdaName, "KebabCase",    \\CommandName, "Convert To Kebab Case",    \\Description, "Convert text in selection to kebab case.",    _Words, Words(input, 1),    _Result, TEXTJOIN("-", , LOWER(_Words)),    _Result ));
-]]></Text>
-</file>
-
-<file path=customXml/item10.xml><?xml version="1.0" encoding="utf-8"?>
 <JSON><![CDATA[
 {
   "Commands": [
@@ -2786,6 +2780,19 @@
       ]
     },
     {
+      "Name": "List Characters (new)",
+      "Description": "Apply Character lambda function to active cell.",
+      "Type": "ExcelFormulaCommand",
+      "LaunchCodes": [
+        "lc"
+      ],
+      "Formula": "=Character([[ActiveCell::Formula]], 1)",
+      "FormulaDependencies": [
+        "Character.lambda"
+      ],
+      "UpdateFormulaDependencies": true
+    },
+    {
       "Name": "Ordinal Date",
       "Description": "Convert dates into long format including the ordinal suffixes \"th\", \"st\", \"nd\" and \"rd\"",
       "Type": "ExcelFormulaCommand",
@@ -2823,11 +2830,11 @@
   ],
   "Texts": [
     {
-      "Name": "Characters.lambda",
-      "Description": "Definition of Characters lambda function.",
+      "Name": "Character.lambda",
+      "Description": "Definition of Character lambda function.",
       "Type": "ExcelNameText",
       "ContentType": "ExcelFormula",
-      "Location": "Characters"
+      "Location": "Character"
     },
     {
       "Name": "GetOrdinalSuffix.lambda",
@@ -2897,22 +2904,18 @@
 ]]></JSON>
 </file>
 
-<file path=customXml/item11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item10.xml><?xml version="1.0" encoding="utf-8"?>
 <Text><![CDATA[
 ]]></Text>
 </file>
 
-<file path=customXml/item12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item11.xml><?xml version="1.0" encoding="utf-8"?>
 <Text><![CDATA[
+Character = LAMBDA(text,[spill_down],[chunk_size], LET(    \\LambdaName, "Characters",    _ChunkSize, IF(chunk_size = 0, 1, chunk_size),    _Pattern, "(\X{" & _ChunkSize & "})",    _Characters, REGEXEXTRACT(text, _Pattern, 1),    _Transpose, IF(ISOMITTED(spill_down), FALSE, spill_down),    _Result, IF(_Transpose, TRANSPOSE(_Characters), _Characters),    _Result ));
 ]]></Text>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<Text><![CDATA[
-]]></Text>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item12.xml><?xml version="1.0" encoding="utf-8"?>
 <writeIndexDataTable>
   <xs:schema xmlns="" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:msdata="urn:schemas-microsoft-com:xml-msdata" id="writeIndexDataTable">
     <xs:element name="writeIndexDataTable" msdata:IsDataSet="true" msdata:UseCurrentLocale="true">
@@ -2945,8 +2948,8 @@
     <ItemName>HotkeyCommands</ItemName>
     <ItemDescription/>
     <ItemType>JSON</ItemType>
-    <LastUpdated>30/11/2025 13:17:16 +00:00</LastUpdated>
-    <CustomXmlPartGuid>{DF6CEFF3-CBD7-4877-9A1F-515FC9F8190A}</CustomXmlPartGuid>
+    <LastUpdated>30/11/2025 16:18:39 +00:00</LastUpdated>
+    <CustomXmlPartGuid>{18D47C46-5C71-44C2-8D64-685C9B079157}</CustomXmlPartGuid>
   </CustomXmlPartIndex>
   <CustomXmlPartIndex>
     <CollectionName>HotkeyCommands</CollectionName>
@@ -2954,8 +2957,8 @@
     <ItemDescription/>
     <ItemType>Text</ItemType>
     <ItemSubtype/>
-    <LastUpdated>30/11/2025 13:17:16 +00:00</LastUpdated>
-    <CustomXmlPartGuid>{B76E95C4-C168-4A1A-94E6-F3ECDDF10B72}</CustomXmlPartGuid>
+    <LastUpdated>30/11/2025 16:18:39 +00:00</LastUpdated>
+    <CustomXmlPartGuid>{BA11B9AC-8B80-4CDB-BEC8-2669EAF2E677}</CustomXmlPartGuid>
   </CustomXmlPartIndex>
   <CustomXmlPartIndex>
     <CollectionName>HotkeyCommands</CollectionName>
@@ -2963,8 +2966,8 @@
     <ItemDescription/>
     <ItemType>Text</ItemType>
     <ItemSubtype/>
-    <LastUpdated>30/11/2025 13:17:16 +00:00</LastUpdated>
-    <CustomXmlPartGuid>{16275050-99E3-419A-A47F-03838C5A7255}</CustomXmlPartGuid>
+    <LastUpdated>30/11/2025 16:18:39 +00:00</LastUpdated>
+    <CustomXmlPartGuid>{8E2C576C-7EE4-40C1-A4E6-8504050F5188}</CustomXmlPartGuid>
   </CustomXmlPartIndex>
   <CustomXmlPartIndex>
     <CollectionName>HotkeyCommands</CollectionName>
@@ -2972,8 +2975,8 @@
     <ItemDescription/>
     <ItemType>Text</ItemType>
     <ItemSubtype/>
-    <LastUpdated>30/11/2025 13:17:16 +00:00</LastUpdated>
-    <CustomXmlPartGuid>{267EEF6D-B4C0-4564-A809-C4C772C9F30B}</CustomXmlPartGuid>
+    <LastUpdated>30/11/2025 16:18:39 +00:00</LastUpdated>
+    <CustomXmlPartGuid>{C2B109EF-2AEA-4EC7-9321-6331C03882CA}</CustomXmlPartGuid>
   </CustomXmlPartIndex>
   <CustomXmlPartIndex>
     <CollectionName>HotkeyCommands</CollectionName>
@@ -2981,8 +2984,8 @@
     <ItemDescription/>
     <ItemType>Text</ItemType>
     <ItemSubtype/>
-    <LastUpdated>30/11/2025 13:17:16 +00:00</LastUpdated>
-    <CustomXmlPartGuid>{69BA3F21-EEC8-4A50-A729-2FE76B713772}</CustomXmlPartGuid>
+    <LastUpdated>30/11/2025 16:18:39 +00:00</LastUpdated>
+    <CustomXmlPartGuid>{EC50715C-2A8A-43B7-957F-394934784F5D}</CustomXmlPartGuid>
   </CustomXmlPartIndex>
   <CustomXmlPartIndex>
     <CollectionName>HotkeyCommands</CollectionName>
@@ -2990,8 +2993,8 @@
     <ItemDescription/>
     <ItemType>Text</ItemType>
     <ItemSubtype/>
-    <LastUpdated>30/11/2025 13:17:16 +00:00</LastUpdated>
-    <CustomXmlPartGuid>{E41DB631-CF5E-46F5-863C-81A5D7B6731B}</CustomXmlPartGuid>
+    <LastUpdated>30/11/2025 16:18:39 +00:00</LastUpdated>
+    <CustomXmlPartGuid>{3E4F7C14-E333-4BD7-BB7A-477F60ECB301}</CustomXmlPartGuid>
   </CustomXmlPartIndex>
   <CustomXmlPartIndex>
     <CollectionName>HotkeyCommands</CollectionName>
@@ -2999,8 +3002,8 @@
     <ItemDescription/>
     <ItemType>Text</ItemType>
     <ItemSubtype/>
-    <LastUpdated>30/11/2025 13:17:16 +00:00</LastUpdated>
-    <CustomXmlPartGuid>{F21C56E0-E7D5-4306-BCB6-3A6A404E8EC8}</CustomXmlPartGuid>
+    <LastUpdated>30/11/2025 16:18:39 +00:00</LastUpdated>
+    <CustomXmlPartGuid>{3B604E68-8E53-4413-9373-68FBA01B697E}</CustomXmlPartGuid>
   </CustomXmlPartIndex>
   <CustomXmlPartIndex>
     <CollectionName>HotkeyCommands</CollectionName>
@@ -3008,8 +3011,8 @@
     <ItemDescription/>
     <ItemType>Text</ItemType>
     <ItemSubtype/>
-    <LastUpdated>30/11/2025 13:17:16 +00:00</LastUpdated>
-    <CustomXmlPartGuid>{339C4442-212A-4C4C-9778-AF215299252D}</CustomXmlPartGuid>
+    <LastUpdated>30/11/2025 16:18:39 +00:00</LastUpdated>
+    <CustomXmlPartGuid>{3C962305-DEFE-40EB-9879-09ADC9383B84}</CustomXmlPartGuid>
   </CustomXmlPartIndex>
   <CustomXmlPartIndex>
     <CollectionName>HotkeyCommands</CollectionName>
@@ -3017,8 +3020,8 @@
     <ItemDescription/>
     <ItemType>Text</ItemType>
     <ItemSubtype/>
-    <LastUpdated>30/11/2025 13:17:16 +00:00</LastUpdated>
-    <CustomXmlPartGuid>{50086A64-CAEB-40DE-B279-9B48AF381BC5}</CustomXmlPartGuid>
+    <LastUpdated>30/11/2025 16:18:39 +00:00</LastUpdated>
+    <CustomXmlPartGuid>{03C149FF-6410-4AEF-A9B8-72C1F8DCE667}</CustomXmlPartGuid>
   </CustomXmlPartIndex>
   <CustomXmlPartIndex>
     <CollectionName>HotkeyCommands</CollectionName>
@@ -3026,22 +3029,27 @@
     <ItemDescription/>
     <ItemType>Text</ItemType>
     <ItemSubtype/>
-    <LastUpdated>30/11/2025 13:17:16 +00:00</LastUpdated>
-    <CustomXmlPartGuid>{8E81A673-B03F-428D-9491-83DF6610F402}</CustomXmlPartGuid>
+    <LastUpdated>30/11/2025 16:18:39 +00:00</LastUpdated>
+    <CustomXmlPartGuid>{5A6DCA70-B33B-4035-A038-ACF5F7C64BD4}</CustomXmlPartGuid>
   </CustomXmlPartIndex>
   <CustomXmlPartIndex>
     <CollectionName>HotkeyCommands</CollectionName>
-    <ItemName>Characters.lambda</ItemName>
+    <ItemName>Character.lambda</ItemName>
     <ItemDescription/>
     <ItemType>Text</ItemType>
     <ItemSubtype/>
-    <LastUpdated>30/11/2025 13:17:16 +00:00</LastUpdated>
-    <CustomXmlPartGuid>{88B08583-7AF6-45D4-8842-E63E7D5E011D}</CustomXmlPartGuid>
+    <LastUpdated>30/11/2025 16:18:39 +00:00</LastUpdated>
+    <CustomXmlPartGuid>{238D5F00-68A7-4B9E-BE39-1016F225D832}</CustomXmlPartGuid>
   </CustomXmlPartIndex>
 </writeIndexDataTable>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<Text><![CDATA[
+]]></Text>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <Text><![CDATA[
 /*Convert text in selection to kabob case.  */
 KabobCase = LAMBDA(input, LET(
@@ -3055,6 +3063,12 @@
 ]]></Text>
 </file>
 
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<Text><![CDATA[
+KebabCase = LAMBDA(input, LET(    \\LambdaName, "KebabCase",    \\CommandName, "Convert To Kebab Case",    \\Description, "Convert text in selection to kebab case.",    _Words, Words(input, 1),    _Result, TEXTJOIN("-", , LOWER(_Words)),    _Result ));
+]]></Text>
+</file>
+
 <file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
 <Text><![CDATA[
 ]]></Text>
@@ -3067,15 +3081,6 @@
 
 <file path=customXml/item7.xml><?xml version="1.0" encoding="utf-8"?>
 <Text><![CDATA[
-Characters = LAMBDA(text,[spill_down],[chunk_size], LET(
-   \\LambdaName, "Characters",
-   _ChunkSize, IF(chunk_size = 0, 1, chunk_size),
-   _Pattern, "(\X{" & _ChunkSize & "})",
-   _Characters, REGEXEXTRACT(text, _Pattern, 1),
-   _Transpose, IF(ISOMITTED(spill_down), FALSE, spill_down),
-   _Result, IF(_Transpose, TRANSPOSE(_Characters), _Characters),
-   _Result
-));
 ]]></Text>
 </file>
 
@@ -3090,37 +3095,25 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{267EEF6D-B4C0-4564-A809-C4C772C9F30B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{18D47C46-5C71-44C2-8D64-685C9B079157}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps10.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DF6CEFF3-CBD7-4877-9A1F-515FC9F8190A}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A6DCA70-B33B-4035-A038-ACF5F7C64BD4}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps11.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8E81A673-B03F-428D-9491-83DF6610F402}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{238D5F00-68A7-4B9E-BE39-1016F225D832}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps12.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{69BA3F21-EEC8-4A50-A729-2FE76B713772}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{50086A64-CAEB-40DE-B279-9B48AF381BC5}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39E344F8-F1D0-46DC-A3EF-A15B742BE6D6}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B13C36B9-B1FE-468B-B8F9-952060D686F4}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri=""/>
     <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
@@ -3129,38 +3122,50 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{16275050-99E3-419A-A47F-03838C5A7255}">
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BA11B9AC-8B80-4CDB-BEC8-2669EAF2E677}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{339C4442-212A-4C4C-9778-AF215299252D}">
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8E2C576C-7EE4-40C1-A4E6-8504050F5188}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F21C56E0-E7D5-4306-BCB6-3A6A404E8EC8}">
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C2B109EF-2AEA-4EC7-9321-6331C03882CA}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps7.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{88B08583-7AF6-45D4-8842-E63E7D5E011D}">
+<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EC50715C-2A8A-43B7-957F-394934784F5D}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps8.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B76E95C4-C168-4A1A-94E6-F3ECDDF10B72}">
+<file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3E4F7C14-E333-4BD7-BB7A-477F60ECB301}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps7.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3B604E68-8E53-4413-9373-68FBA01B697E}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps8.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3C962305-DEFE-40EB-9879-09ADC9383B84}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps9.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E41DB631-CF5E-46F5-863C-81A5D7B6731B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{03C149FF-6410-4AEF-A9B8-72C1F8DCE667}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
--- a/Denis Robot.xlsx
+++ b/Denis Robot.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/17d5bd86d3906b59/Documents/GitHub/denis-robot/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="24" documentId="8_{765FE789-A39F-400E-91D1-04A3BF518648}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D4262964-E8B5-4895-B47C-D1B8B1F19E4A}"/>
+  <xr:revisionPtr revIDLastSave="26" documentId="8_{765FE789-A39F-400E-91D1-04A3BF518648}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E5B41E89-5E9F-42B5-B7CC-8B39E43D1FA2}"/>
   <bookViews>
-    <workbookView xWindow="33720" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{23D6A8CF-57FE-4A34-BA04-D39890A7F850}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" activeTab="2" xr2:uid="{23D6A8CF-57FE-4A34-BA04-D39890A7F850}"/>
   </bookViews>
   <sheets>
     <sheet name="Commands" sheetId="5" r:id="rId1"/>
@@ -2063,7 +2063,7 @@
   <dimension ref="A1:V21"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2819,6 +2819,20 @@
       "Formula": "=OrdinalSuffix([[Selection]])"
     },
     {
+      "Name": "Paste List of Characters",
+      "Description": "Apply Character lambda function to contents of clipboard.",
+      "Type": "ExcelFormulaCommand",
+      "UserContextFilter": "ClipboardHasExcelData",
+      "LaunchCodes": [
+        "plc"
+      ],
+      "Formula": "=Character([[Clipboard]], 1)",
+      "FormulaDependencies": [
+        "Character.lambda"
+      ],
+      "UpdateFormulaDependencies": true
+    },
+    {
       "Name": "Show Formulas",
       "Description": "Apply ShowFormulas lambda function to active cell.",
       "Type": "ExcelFormulaCommand",
@@ -2911,7 +2925,6 @@
 
 <file path=customXml/item11.xml><?xml version="1.0" encoding="utf-8"?>
 <Text><![CDATA[
-Character = LAMBDA(text,[spill_down],[chunk_size], LET(    \\LambdaName, "Characters",    _ChunkSize, IF(chunk_size = 0, 1, chunk_size),    _Pattern, "(\X{" & _ChunkSize & "})",    _Characters, REGEXEXTRACT(text, _Pattern, 1),    _Transpose, IF(ISOMITTED(spill_down), FALSE, spill_down),    _Result, IF(_Transpose, TRANSPOSE(_Characters), _Characters),    _Result ));
 ]]></Text>
 </file>
 
@@ -2948,8 +2961,17 @@
     <ItemName>HotkeyCommands</ItemName>
     <ItemDescription/>
     <ItemType>JSON</ItemType>
-    <LastUpdated>30/11/2025 16:18:39 +00:00</LastUpdated>
-    <CustomXmlPartGuid>{18D47C46-5C71-44C2-8D64-685C9B079157}</CustomXmlPartGuid>
+    <LastUpdated>30/11/2025 16:47:00 +00:00</LastUpdated>
+    <CustomXmlPartGuid>{30CC4C99-D185-4514-8606-BE3800DCF712}</CustomXmlPartGuid>
+  </CustomXmlPartIndex>
+  <CustomXmlPartIndex>
+    <CollectionName>HotkeyCommands</CollectionName>
+    <ItemName>Character.lambda</ItemName>
+    <ItemDescription/>
+    <ItemType>Text</ItemType>
+    <ItemSubtype/>
+    <LastUpdated>30/11/2025 16:47:00 +00:00</LastUpdated>
+    <CustomXmlPartGuid>{0E00E7E8-3B72-4038-A432-23D6038519DF}</CustomXmlPartGuid>
   </CustomXmlPartIndex>
   <CustomXmlPartIndex>
     <CollectionName>HotkeyCommands</CollectionName>
@@ -2957,8 +2979,8 @@
     <ItemDescription/>
     <ItemType>Text</ItemType>
     <ItemSubtype/>
-    <LastUpdated>30/11/2025 16:18:39 +00:00</LastUpdated>
-    <CustomXmlPartGuid>{BA11B9AC-8B80-4CDB-BEC8-2669EAF2E677}</CustomXmlPartGuid>
+    <LastUpdated>30/11/2025 16:47:00 +00:00</LastUpdated>
+    <CustomXmlPartGuid>{0812DF3F-4660-47DC-BC82-29473CABF806}</CustomXmlPartGuid>
   </CustomXmlPartIndex>
   <CustomXmlPartIndex>
     <CollectionName>HotkeyCommands</CollectionName>
@@ -2966,8 +2988,8 @@
     <ItemDescription/>
     <ItemType>Text</ItemType>
     <ItemSubtype/>
-    <LastUpdated>30/11/2025 16:18:39 +00:00</LastUpdated>
-    <CustomXmlPartGuid>{8E2C576C-7EE4-40C1-A4E6-8504050F5188}</CustomXmlPartGuid>
+    <LastUpdated>30/11/2025 16:47:00 +00:00</LastUpdated>
+    <CustomXmlPartGuid>{3CD0234F-C3CA-4BFF-808C-82736E334496}</CustomXmlPartGuid>
   </CustomXmlPartIndex>
   <CustomXmlPartIndex>
     <CollectionName>HotkeyCommands</CollectionName>
@@ -2975,8 +2997,8 @@
     <ItemDescription/>
     <ItemType>Text</ItemType>
     <ItemSubtype/>
-    <LastUpdated>30/11/2025 16:18:39 +00:00</LastUpdated>
-    <CustomXmlPartGuid>{C2B109EF-2AEA-4EC7-9321-6331C03882CA}</CustomXmlPartGuid>
+    <LastUpdated>30/11/2025 16:47:00 +00:00</LastUpdated>
+    <CustomXmlPartGuid>{0BCB9AEE-E685-4BD3-AFDB-0D7A4F4B41A4}</CustomXmlPartGuid>
   </CustomXmlPartIndex>
   <CustomXmlPartIndex>
     <CollectionName>HotkeyCommands</CollectionName>
@@ -2984,8 +3006,8 @@
     <ItemDescription/>
     <ItemType>Text</ItemType>
     <ItemSubtype/>
-    <LastUpdated>30/11/2025 16:18:39 +00:00</LastUpdated>
-    <CustomXmlPartGuid>{EC50715C-2A8A-43B7-957F-394934784F5D}</CustomXmlPartGuid>
+    <LastUpdated>30/11/2025 16:47:00 +00:00</LastUpdated>
+    <CustomXmlPartGuid>{27DA9B04-5AB3-47BB-801B-5F4F66B797C7}</CustomXmlPartGuid>
   </CustomXmlPartIndex>
   <CustomXmlPartIndex>
     <CollectionName>HotkeyCommands</CollectionName>
@@ -2993,8 +3015,8 @@
     <ItemDescription/>
     <ItemType>Text</ItemType>
     <ItemSubtype/>
-    <LastUpdated>30/11/2025 16:18:39 +00:00</LastUpdated>
-    <CustomXmlPartGuid>{3E4F7C14-E333-4BD7-BB7A-477F60ECB301}</CustomXmlPartGuid>
+    <LastUpdated>30/11/2025 16:47:00 +00:00</LastUpdated>
+    <CustomXmlPartGuid>{0FDC1646-E044-4F2A-8E2A-F734FE313E03}</CustomXmlPartGuid>
   </CustomXmlPartIndex>
   <CustomXmlPartIndex>
     <CollectionName>HotkeyCommands</CollectionName>
@@ -3002,8 +3024,8 @@
     <ItemDescription/>
     <ItemType>Text</ItemType>
     <ItemSubtype/>
-    <LastUpdated>30/11/2025 16:18:39 +00:00</LastUpdated>
-    <CustomXmlPartGuid>{3B604E68-8E53-4413-9373-68FBA01B697E}</CustomXmlPartGuid>
+    <LastUpdated>30/11/2025 16:47:00 +00:00</LastUpdated>
+    <CustomXmlPartGuid>{16D3AED1-4330-4B92-BB38-3C72DB3AAAD7}</CustomXmlPartGuid>
   </CustomXmlPartIndex>
   <CustomXmlPartIndex>
     <CollectionName>HotkeyCommands</CollectionName>
@@ -3011,8 +3033,8 @@
     <ItemDescription/>
     <ItemType>Text</ItemType>
     <ItemSubtype/>
-    <LastUpdated>30/11/2025 16:18:39 +00:00</LastUpdated>
-    <CustomXmlPartGuid>{3C962305-DEFE-40EB-9879-09ADC9383B84}</CustomXmlPartGuid>
+    <LastUpdated>30/11/2025 16:47:00 +00:00</LastUpdated>
+    <CustomXmlPartGuid>{EBCFBFB9-BC5B-42FB-A4C4-96A3846E180C}</CustomXmlPartGuid>
   </CustomXmlPartIndex>
   <CustomXmlPartIndex>
     <CollectionName>HotkeyCommands</CollectionName>
@@ -3020,8 +3042,8 @@
     <ItemDescription/>
     <ItemType>Text</ItemType>
     <ItemSubtype/>
-    <LastUpdated>30/11/2025 16:18:39 +00:00</LastUpdated>
-    <CustomXmlPartGuid>{03C149FF-6410-4AEF-A9B8-72C1F8DCE667}</CustomXmlPartGuid>
+    <LastUpdated>30/11/2025 16:47:00 +00:00</LastUpdated>
+    <CustomXmlPartGuid>{A07B9F39-5676-40BB-B1D5-4B9C459E2875}</CustomXmlPartGuid>
   </CustomXmlPartIndex>
   <CustomXmlPartIndex>
     <CollectionName>HotkeyCommands</CollectionName>
@@ -3029,27 +3051,24 @@
     <ItemDescription/>
     <ItemType>Text</ItemType>
     <ItemSubtype/>
-    <LastUpdated>30/11/2025 16:18:39 +00:00</LastUpdated>
-    <CustomXmlPartGuid>{5A6DCA70-B33B-4035-A038-ACF5F7C64BD4}</CustomXmlPartGuid>
-  </CustomXmlPartIndex>
-  <CustomXmlPartIndex>
-    <CollectionName>HotkeyCommands</CollectionName>
-    <ItemName>Character.lambda</ItemName>
-    <ItemDescription/>
-    <ItemType>Text</ItemType>
-    <ItemSubtype/>
-    <LastUpdated>30/11/2025 16:18:39 +00:00</LastUpdated>
-    <CustomXmlPartGuid>{238D5F00-68A7-4B9E-BE39-1016F225D832}</CustomXmlPartGuid>
+    <LastUpdated>30/11/2025 16:47:00 +00:00</LastUpdated>
+    <CustomXmlPartGuid>{9831D3B3-7209-4023-B178-9DB0F6DF8A72}</CustomXmlPartGuid>
   </CustomXmlPartIndex>
 </writeIndexDataTable>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <Text><![CDATA[
+Character = LAMBDA(text,[spill_down],[chunk_size], LET(    \\LambdaName, "Characters",    _ChunkSize, IF(chunk_size = 0, 1, chunk_size),    _Pattern, "(\X{" & _ChunkSize & "})",    _Characters, REGEXEXTRACT(text, _Pattern, 1),    _Transpose, IF(ISOMITTED(spill_down), FALSE, spill_down),    _Result, IF(_Transpose, TRANSPOSE(_Characters), _Characters),    _Result ));
 ]]></Text>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<Text><![CDATA[
+]]></Text>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <Text><![CDATA[
 /*Convert text in selection to kabob case.  */
 KabobCase = LAMBDA(input, LET(
@@ -3063,17 +3082,12 @@
 ]]></Text>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
 <Text><![CDATA[
 KebabCase = LAMBDA(input, LET(    \\LambdaName, "KebabCase",    \\CommandName, "Convert To Kebab Case",    \\Description, "Convert text in selection to kebab case.",    _Words, Words(input, 1),    _Result, TEXTJOIN("-", , LOWER(_Words)),    _Result ));
 ]]></Text>
 </file>
 
-<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
-<Text><![CDATA[
-]]></Text>
-</file>
-
 <file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
 <Text><![CDATA[
 ]]></Text>
@@ -3095,25 +3109,25 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{18D47C46-5C71-44C2-8D64-685C9B079157}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{30CC4C99-D185-4514-8606-BE3800DCF712}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps10.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A6DCA70-B33B-4035-A038-ACF5F7C64BD4}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A07B9F39-5676-40BB-B1D5-4B9C459E2875}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps11.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{238D5F00-68A7-4B9E-BE39-1016F225D832}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9831D3B3-7209-4023-B178-9DB0F6DF8A72}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps12.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B13C36B9-B1FE-468B-B8F9-952060D686F4}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D34ACC5F-0988-4A47-858C-6A305CB90BF8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri=""/>
     <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
@@ -3123,49 +3137,49 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BA11B9AC-8B80-4CDB-BEC8-2669EAF2E677}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E00E7E8-3B72-4038-A432-23D6038519DF}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8E2C576C-7EE4-40C1-A4E6-8504050F5188}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0812DF3F-4660-47DC-BC82-29473CABF806}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C2B109EF-2AEA-4EC7-9321-6331C03882CA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3CD0234F-C3CA-4BFF-808C-82736E334496}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EC50715C-2A8A-43B7-957F-394934784F5D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0BCB9AEE-E685-4BD3-AFDB-0D7A4F4B41A4}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3E4F7C14-E333-4BD7-BB7A-477F60ECB301}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{27DA9B04-5AB3-47BB-801B-5F4F66B797C7}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps7.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3B604E68-8E53-4413-9373-68FBA01B697E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0FDC1646-E044-4F2A-8E2A-F734FE313E03}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps8.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3C962305-DEFE-40EB-9879-09ADC9383B84}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{16D3AED1-4330-4B92-BB38-3C72DB3AAAD7}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps9.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{03C149FF-6410-4AEF-A9B8-72C1F8DCE667}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EBCFBFB9-BC5B-42FB-A4C4-96A3846E180C}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
--- a/Denis Robot.xlsx
+++ b/Denis Robot.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/17d5bd86d3906b59/Documents/GitHub/denis-robot/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="26" documentId="8_{765FE789-A39F-400E-91D1-04A3BF518648}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E5B41E89-5E9F-42B5-B7CC-8B39E43D1FA2}"/>
+  <xr:revisionPtr revIDLastSave="130" documentId="8_{765FE789-A39F-400E-91D1-04A3BF518648}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8F36D5F7-590A-43BF-A658-4D5B7F112EAC}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" activeTab="2" xr2:uid="{23D6A8CF-57FE-4A34-BA04-D39890A7F850}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" activeTab="3" xr2:uid="{23D6A8CF-57FE-4A34-BA04-D39890A7F850}"/>
   </bookViews>
   <sheets>
     <sheet name="Commands" sheetId="5" r:id="rId1"/>
     <sheet name="Ordinals-EN" sheetId="4" r:id="rId2"/>
-    <sheet name="Utilities" sheetId="6" r:id="rId3"/>
+    <sheet name="Text Utilities" sheetId="6" r:id="rId3"/>
+    <sheet name="Cipher" sheetId="7" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_AtRisk_SimSetting_AutomaticallyGenerateReports" hidden="1">FALSE</definedName>
@@ -36,7 +37,60 @@
     <definedName name="_AtRisk_SimSetting_StdRecalcBehavior" hidden="1">0</definedName>
     <definedName name="_AtRisk_SimSetting_StdRecalcWithoutRiskStatic" hidden="1">0</definedName>
     <definedName name="_AtRisk_SimSetting_StdRecalcWithoutRiskStaticPercentile" hidden="1">0.5</definedName>
-    <definedName name="Character" xml:space="preserve"> _xlfn.LAMBDA(_xlpm.text,_xlop.spill_down,_xlop.chunk_size, _xlfn.LET(    _xlpm.\\LambdaName, "Characters",    _xlpm._ChunkSize, IF(_xlpm.chunk_size = 0, 1, _xlpm.chunk_size),    _xlpm._Pattern, "(\X{" &amp; _xlpm._ChunkSize &amp; "})",    _xlpm._Characters, _xlfn.REGEXEXTRACT(_xlpm.text, _xlpm._Pattern, 1),    _xlpm._Transpose, IF(_xlfn.ISOMITTED(_xlpm.spill_down), FALSE, _xlpm.spill_down),    _xlpm._Result, IF(_xlpm._Transpose, TRANSPOSE(_xlpm._Characters), _xlpm._Characters),    _xlpm._Result ))</definedName>
+    <definedName name="_cipher">_xlfn.LAMBDA(_xlpm.txt,_xlpm.shft, _xlfn.LET(
+   _xlpm.\\LambdaName, "_cipher",
+   _xlpm.\\CommandName, "Apply cipher to text",
+   _xlpm.\\Source, "Dim Early",
+   _xlpm._Inchars, Character(_xlpm.txt, 1),
+   _xlpm._Codes, _xlfn.UNICODE(_xlpm._Inchars),
+   _xlpm._IsLet, NOT(EXACT(UPPER(_xlpm._Inchars), LOWER(_xlpm._Inchars))),
+   _xlpm._ShfCd, IF(
+      _xlpm._IsLet,
+      _mod(_xlpm._Codes + _xlpm.shft, 26, _xlfn.FLOOR.MATH(_xlpm._Codes, 32) + 1),
+      _xlpm._Codes
+   ),
+   _xlpm._Outchars, IF(_xlpm._IsLet, _xlfn.UNICHAR(_xlpm._ShfCd), _xlpm._Inchars),
+   _xlpm._Result, _xlfn.CONCAT(_xlpm._Outchars),
+   _xlpm._Result
+))</definedName>
+    <definedName name="_IFOMITTED">_xlfn.LAMBDA(_xlpm.arg,_xlpm.default, _xlfn.LET(
+   _xlpm.\\LambdaName, "IFOMITTED",
+   _xlpm.\\CommandName, "If Omitted",
+   _xlpm.\\Source, "Dim Early",
+   IF(_xlfn.ISOMITTED(_xlpm.arg), _xlpm.default, _xlpm.arg)
+))</definedName>
+    <definedName name="_mod">_xlfn.LAMBDA(_xlpm.number,_xlpm.divisor,_xlop.start, _xlfn.LET(
+   _xlpm.\\LambdaName, "_mod",
+   _xlpm.\\CommandName, "Insert repeating sequence",
+   _xlpm.\\Source, "Dim Early",
+   _xlpm.start, _IFOMITTED(_xlpm.start, 1),
+   MOD(_xlpm.number - _xlpm.start, _xlpm.divisor) + _xlpm.start
+))</definedName>
+    <definedName name="Character" xml:space="preserve">  _xlfn.LAMBDA(_xlpm.text,_xlop.spill_down,_xlop.chunk_size, _xlfn.LET(    _xlpm.\\LambdaName, "Characters",    _xlpm._ChunkSize, IF(_xlpm.chunk_size = 0, 1, _xlpm.chunk_size),    _xlpm._Pattern, "(\X{" &amp; _xlpm._ChunkSize &amp; "})",    _xlpm._Characters, _xlfn.REGEXEXTRACT(_xlpm.text, _xlpm._Pattern, 1),    _xlpm._Transpose, IF(_xlfn.ISOMITTED(_xlpm.spill_down), FALSE, _xlpm.spill_down),    _xlpm._Result, IF(_xlpm._Transpose, TRANSPOSE(_xlpm._Characters), _xlpm._Characters),    _xlpm._Result ))</definedName>
+    <definedName name="Characters" xml:space="preserve"> _xlfn.LAMBDA(_xlpm.text,_xlop.spill_down,_xlop.chunk_size, _xlfn.LET(
+   _xlpm.\\LambdaName, "Characters",
+   _xlpm._ChunkSize, IF(_xlpm.chunk_size = 0, 1, _xlpm.chunk_size),
+   _xlpm._Characters, MID(_xlpm.text, _xlfn.SEQUENCE(, ROUNDUP(LEN(_xlpm.text) / _xlpm._ChunkSize, 0), 1, _xlpm._ChunkSize), _xlpm._ChunkSize),
+   _xlpm._Transpose, IF(_xlfn.ISOMITTED(_xlpm.spill_down), FALSE, _xlpm.spill_down),
+   _xlpm._Result, IF(_xlpm._Transpose, TRANSPOSE(_xlpm._Characters), _xlpm._Characters),
+   _xlpm._Result
+))</definedName>
+    <definedName name="Cipher">_xlfn.LAMBDA(_xlpm.txt,_xlpm.shft, _xlfn.LET(
+   _xlpm.\\LambdaName, "Cipher",
+   _xlpm.\\CommandName, "Apply Cipher",
+   _xlpm.\\Source, "Dim Early",
+   _xlpm._Inchars, Character(_xlpm.txt, 1),
+   _xlpm._Codes, _xlfn.UNICODE(_xlpm._Inchars),
+   _xlpm._IsLet, NOT(EXACT(UPPER(_xlpm._Inchars), LOWER(_xlpm._Inchars))),
+   _xlpm._ShfCd, IF(
+      _xlpm._IsLet,
+      _mod(_xlpm._Codes + _xlpm.shft, 26, _xlfn.FLOOR.MATH(_xlpm._Codes, 32) + 1),
+      _xlpm._Codes
+   ),
+   _xlpm._Outchars, IF(_xlpm._IsLet, _xlfn.UNICHAR(_xlpm._ShfCd), _xlpm._Inchars),
+   _xlpm._Result, _xlfn.CONCAT(_xlpm._Outchars),
+   _xlpm._Result
+))</definedName>
     <definedName name="IQ_FWD_CY" hidden="1">10001</definedName>
     <definedName name="IQ_FWD_CY1" hidden="1">10002</definedName>
     <definedName name="IQ_FWD_CY2" hidden="1">10003</definedName>
@@ -149,7 +203,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="66">
   <si>
     <t>Number</t>
   </si>
@@ -320,13 +374,40 @@
   </si>
   <si>
     <t>Breaks text into chunks of n characters. Treats multi-character emojis as single characters</t>
+  </si>
+  <si>
+    <t>codes</t>
+  </si>
+  <si>
+    <t>txt</t>
+  </si>
+  <si>
+    <t>shft</t>
+  </si>
+  <si>
+    <t>isLet</t>
+  </si>
+  <si>
+    <t>shfCd</t>
+  </si>
+  <si>
+    <t>cipher</t>
+  </si>
+  <si>
+    <t>inchars</t>
+  </si>
+  <si>
+    <t>outchars</t>
+  </si>
+  <si>
+    <t>HELLO WORLD 🏴‍☠️🏴‍☠️</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -414,8 +495,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -425,6 +513,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF9F"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -468,7 +562,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -520,6 +614,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
@@ -2062,7 +2158,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C3A5B8C-C24B-4DA3-ADC1-F211CBF4BEF6}">
   <dimension ref="A1:V21"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
@@ -2733,10 +2829,504 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B3BD4C0-1C7D-455C-94A7-34C7C89C22C6}">
+  <dimension ref="C1:K28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N16" sqref="N16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:11" x14ac:dyDescent="0.35">
+      <c r="F1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="3:11" x14ac:dyDescent="0.35">
+      <c r="F2" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="G2" s="24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="3:11" x14ac:dyDescent="0.35">
+      <c r="C3" cm="1">
+        <f t="array" ref="C3:C28">_xlfn.SEQUENCE(26)</f>
+        <v>1</v>
+      </c>
+      <c r="D3" s="23" t="str" cm="1">
+        <f t="array" ref="D3:D28">CHAR(_xlfn.ANCHORARRAY(C3)+64)</f>
+        <v>A</v>
+      </c>
+    </row>
+    <row r="4" spans="3:11" x14ac:dyDescent="0.35">
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4" t="str">
+        <v>B</v>
+      </c>
+    </row>
+    <row r="5" spans="3:11" x14ac:dyDescent="0.35">
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5" t="str">
+        <v>C</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="3:11" x14ac:dyDescent="0.35">
+      <c r="C6">
+        <v>4</v>
+      </c>
+      <c r="D6" t="str">
+        <v>D</v>
+      </c>
+      <c r="F6" t="str" cm="1">
+        <f t="array" ref="F6:F19">Character(F2, 1)</f>
+        <v>H</v>
+      </c>
+      <c r="G6" cm="1">
+        <f t="array" ref="G6:G19">_xlfn.UNICODE(_xlfn.ANCHORARRAY(F6))</f>
+        <v>72</v>
+      </c>
+      <c r="H6" t="b" cm="1">
+        <f t="array" ref="H6:H19">NOT(EXACT(UPPER(_xlfn.ANCHORARRAY(F6)),LOWER(_xlfn.ANCHORARRAY(F6))))</f>
+        <v>1</v>
+      </c>
+      <c r="I6" cm="1">
+        <f t="array" ref="I6:I19">IF(_xlfn.ANCHORARRAY(H6),_mod(_xlfn.ANCHORARRAY(G6)+G2,26,_xlfn.FLOOR.MATH(_xlfn.ANCHORARRAY(G6),32)+1),_xlfn.ANCHORARRAY(G6))</f>
+        <v>75</v>
+      </c>
+      <c r="J6" t="str" cm="1">
+        <f t="array" ref="J6:J19">IF(_xlfn.ANCHORARRAY(H6),_xlfn.UNICHAR(_xlfn.ANCHORARRAY(I6)),_xlfn.ANCHORARRAY(F6))</f>
+        <v>K</v>
+      </c>
+      <c r="K6" t="str" cm="1">
+        <f t="array" ref="K6">_cipher(F2, G2)</f>
+        <v>KHOOR ZRUOG 🏴‍☠️🏴‍☠️</v>
+      </c>
+    </row>
+    <row r="7" spans="3:11" x14ac:dyDescent="0.35">
+      <c r="C7">
+        <v>5</v>
+      </c>
+      <c r="D7" t="str">
+        <v>E</v>
+      </c>
+      <c r="F7" t="str">
+        <v>E</v>
+      </c>
+      <c r="G7">
+        <v>69</v>
+      </c>
+      <c r="H7" t="b">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>72</v>
+      </c>
+      <c r="J7" t="str">
+        <v>H</v>
+      </c>
+    </row>
+    <row r="8" spans="3:11" x14ac:dyDescent="0.35">
+      <c r="C8">
+        <v>6</v>
+      </c>
+      <c r="D8" t="str">
+        <v>F</v>
+      </c>
+      <c r="F8" t="str">
+        <v>L</v>
+      </c>
+      <c r="G8">
+        <v>76</v>
+      </c>
+      <c r="H8" t="b">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>79</v>
+      </c>
+      <c r="J8" t="str">
+        <v>O</v>
+      </c>
+    </row>
+    <row r="9" spans="3:11" x14ac:dyDescent="0.35">
+      <c r="C9">
+        <v>7</v>
+      </c>
+      <c r="D9" t="str">
+        <v>G</v>
+      </c>
+      <c r="F9" t="str">
+        <v>L</v>
+      </c>
+      <c r="G9">
+        <v>76</v>
+      </c>
+      <c r="H9" t="b">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>79</v>
+      </c>
+      <c r="J9" t="str">
+        <v>O</v>
+      </c>
+    </row>
+    <row r="10" spans="3:11" x14ac:dyDescent="0.35">
+      <c r="C10">
+        <v>8</v>
+      </c>
+      <c r="D10" t="str">
+        <v>H</v>
+      </c>
+      <c r="F10" t="str">
+        <v>O</v>
+      </c>
+      <c r="G10">
+        <v>79</v>
+      </c>
+      <c r="H10" t="b">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>82</v>
+      </c>
+      <c r="J10" t="str">
+        <v>R</v>
+      </c>
+    </row>
+    <row r="11" spans="3:11" x14ac:dyDescent="0.35">
+      <c r="C11">
+        <v>9</v>
+      </c>
+      <c r="D11" t="str">
+        <v>I</v>
+      </c>
+      <c r="F11" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G11">
+        <v>32</v>
+      </c>
+      <c r="H11" t="b">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>32</v>
+      </c>
+      <c r="J11" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="12" spans="3:11" x14ac:dyDescent="0.35">
+      <c r="C12">
+        <v>10</v>
+      </c>
+      <c r="D12" t="str">
+        <v>J</v>
+      </c>
+      <c r="F12" t="str">
+        <v>W</v>
+      </c>
+      <c r="G12">
+        <v>87</v>
+      </c>
+      <c r="H12" t="b">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>90</v>
+      </c>
+      <c r="J12" t="str">
+        <v>Z</v>
+      </c>
+    </row>
+    <row r="13" spans="3:11" x14ac:dyDescent="0.35">
+      <c r="C13">
+        <v>11</v>
+      </c>
+      <c r="D13" t="str">
+        <v>K</v>
+      </c>
+      <c r="F13" t="str">
+        <v>O</v>
+      </c>
+      <c r="G13">
+        <v>79</v>
+      </c>
+      <c r="H13" t="b">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>82</v>
+      </c>
+      <c r="J13" t="str">
+        <v>R</v>
+      </c>
+    </row>
+    <row r="14" spans="3:11" x14ac:dyDescent="0.35">
+      <c r="C14">
+        <v>12</v>
+      </c>
+      <c r="D14" t="str">
+        <v>L</v>
+      </c>
+      <c r="F14" t="str">
+        <v>R</v>
+      </c>
+      <c r="G14">
+        <v>82</v>
+      </c>
+      <c r="H14" t="b">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>85</v>
+      </c>
+      <c r="J14" t="str">
+        <v>U</v>
+      </c>
+    </row>
+    <row r="15" spans="3:11" x14ac:dyDescent="0.35">
+      <c r="C15">
+        <v>13</v>
+      </c>
+      <c r="D15" t="str">
+        <v>M</v>
+      </c>
+      <c r="F15" t="str">
+        <v>L</v>
+      </c>
+      <c r="G15">
+        <v>76</v>
+      </c>
+      <c r="H15" t="b">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>79</v>
+      </c>
+      <c r="J15" t="str">
+        <v>O</v>
+      </c>
+    </row>
+    <row r="16" spans="3:11" x14ac:dyDescent="0.35">
+      <c r="C16">
+        <v>14</v>
+      </c>
+      <c r="D16" t="str">
+        <v>N</v>
+      </c>
+      <c r="F16" t="str">
+        <v>D</v>
+      </c>
+      <c r="G16">
+        <v>68</v>
+      </c>
+      <c r="H16" t="b">
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <v>71</v>
+      </c>
+      <c r="J16" t="str">
+        <v>G</v>
+      </c>
+    </row>
+    <row r="17" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="C17">
+        <v>15</v>
+      </c>
+      <c r="D17" t="str">
+        <v>O</v>
+      </c>
+      <c r="F17" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="G17">
+        <v>32</v>
+      </c>
+      <c r="H17" t="b">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>32</v>
+      </c>
+      <c r="J17" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="18" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="C18">
+        <v>16</v>
+      </c>
+      <c r="D18" t="str">
+        <v>P</v>
+      </c>
+      <c r="F18" t="str">
+        <v>🏴‍☠️</v>
+      </c>
+      <c r="G18">
+        <v>127988</v>
+      </c>
+      <c r="H18" t="b">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>127988</v>
+      </c>
+      <c r="J18" t="str">
+        <v>🏴‍☠️</v>
+      </c>
+    </row>
+    <row r="19" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="C19">
+        <v>17</v>
+      </c>
+      <c r="D19" t="str">
+        <v>Q</v>
+      </c>
+      <c r="F19" t="str">
+        <v>🏴‍☠️</v>
+      </c>
+      <c r="G19">
+        <v>127988</v>
+      </c>
+      <c r="H19" t="b">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>127988</v>
+      </c>
+      <c r="J19" t="str">
+        <v>🏴‍☠️</v>
+      </c>
+    </row>
+    <row r="20" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="C20">
+        <v>18</v>
+      </c>
+      <c r="D20" t="str">
+        <v>R</v>
+      </c>
+    </row>
+    <row r="21" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="C21">
+        <v>19</v>
+      </c>
+      <c r="D21" t="str">
+        <v>S</v>
+      </c>
+    </row>
+    <row r="22" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="C22">
+        <v>20</v>
+      </c>
+      <c r="D22" t="str">
+        <v>T</v>
+      </c>
+    </row>
+    <row r="23" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="C23">
+        <v>21</v>
+      </c>
+      <c r="D23" t="str">
+        <v>U</v>
+      </c>
+    </row>
+    <row r="24" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="C24">
+        <v>22</v>
+      </c>
+      <c r="D24" t="str">
+        <v>V</v>
+      </c>
+    </row>
+    <row r="25" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="C25">
+        <v>23</v>
+      </c>
+      <c r="D25" t="str">
+        <v>W</v>
+      </c>
+    </row>
+    <row r="26" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="C26">
+        <v>24</v>
+      </c>
+      <c r="D26" t="str">
+        <v>X</v>
+      </c>
+    </row>
+    <row r="27" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="C27">
+        <v>25</v>
+      </c>
+      <c r="D27" t="str">
+        <v>Y</v>
+      </c>
+    </row>
+    <row r="28" spans="3:10" x14ac:dyDescent="0.35">
+      <c r="C28">
+        <v>26</v>
+      </c>
+      <c r="D28" t="str">
+        <v>Z</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <JSON><![CDATA[
 {
   "Commands": [
+    {
+      "Name": "Apply cipher to text",
+      "Description": "Apply _cipher lambda function to active cell.",
+      "Type": "ExcelFormulaCommand",
+      "Formula": "=_cipher([[ActiveCell::Formula]], G2)",
+      "FormulaDependencies": [
+        "_cipher.lambda",
+        "Character.lambda",
+        "_mod.lambda",
+        "_IFOMITTED.lambda"
+      ]
+    },
     {
       "Name": "Convert To Kebab Case",
       "Description": "Convert text in selection to kebab case (lower case, separated by hyphens)",
@@ -2844,6 +3434,27 @@
   ],
   "Texts": [
     {
+      "Name": "_cipher.lambda",
+      "Description": "Definition of _cipher lambda function.",
+      "Type": "ExcelNameText",
+      "ContentType": "ExcelFormula",
+      "Location": "_cipher"
+    },
+    {
+      "Name": "_IFOMITTED.lambda",
+      "Description": "Definition of _IFOMITTED lambda function.",
+      "Type": "ExcelNameText",
+      "ContentType": "ExcelFormula",
+      "Location": "_IFOMITTED"
+    },
+    {
+      "Name": "_mod.lambda",
+      "Description": "Definition of _mod lambda function.",
+      "Type": "ExcelNameText",
+      "ContentType": "ExcelFormula",
+      "Location": "_mod"
+    },
+    {
       "Name": "Character.lambda",
       "Description": "Definition of Character lambda function.",
       "Type": "ExcelNameText",
@@ -2929,6 +3540,21 @@
 </file>
 
 <file path=customXml/item12.xml><?xml version="1.0" encoding="utf-8"?>
+<Text><![CDATA[
+]]></Text>
+</file>
+
+<file path=customXml/item13.xml><?xml version="1.0" encoding="utf-8"?>
+<Text><![CDATA[
+]]></Text>
+</file>
+
+<file path=customXml/item14.xml><?xml version="1.0" encoding="utf-8"?>
+<Text><![CDATA[
+]]></Text>
+</file>
+
+<file path=customXml/item15.xml><?xml version="1.0" encoding="utf-8"?>
 <writeIndexDataTable>
   <xs:schema xmlns="" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:msdata="urn:schemas-microsoft-com:xml-msdata" id="writeIndexDataTable">
     <xs:element name="writeIndexDataTable" msdata:IsDataSet="true" msdata:UseCurrentLocale="true">
@@ -2961,8 +3587,8 @@
     <ItemName>HotkeyCommands</ItemName>
     <ItemDescription/>
     <ItemType>JSON</ItemType>
-    <LastUpdated>30/11/2025 16:47:00 +00:00</LastUpdated>
-    <CustomXmlPartGuid>{30CC4C99-D185-4514-8606-BE3800DCF712}</CustomXmlPartGuid>
+    <LastUpdated>30/11/2025 18:59:40 +00:00</LastUpdated>
+    <CustomXmlPartGuid>{6419796A-66EB-4619-A338-2F496D0FE021}</CustomXmlPartGuid>
   </CustomXmlPartIndex>
   <CustomXmlPartIndex>
     <CollectionName>HotkeyCommands</CollectionName>
@@ -2970,8 +3596,8 @@
     <ItemDescription/>
     <ItemType>Text</ItemType>
     <ItemSubtype/>
-    <LastUpdated>30/11/2025 16:47:00 +00:00</LastUpdated>
-    <CustomXmlPartGuid>{0E00E7E8-3B72-4038-A432-23D6038519DF}</CustomXmlPartGuid>
+    <LastUpdated>30/11/2025 18:59:40 +00:00</LastUpdated>
+    <CustomXmlPartGuid>{7DC2E47D-07AE-4FFF-A66D-445832D24152}</CustomXmlPartGuid>
   </CustomXmlPartIndex>
   <CustomXmlPartIndex>
     <CollectionName>HotkeyCommands</CollectionName>
@@ -2979,8 +3605,8 @@
     <ItemDescription/>
     <ItemType>Text</ItemType>
     <ItemSubtype/>
-    <LastUpdated>30/11/2025 16:47:00 +00:00</LastUpdated>
-    <CustomXmlPartGuid>{0812DF3F-4660-47DC-BC82-29473CABF806}</CustomXmlPartGuid>
+    <LastUpdated>30/11/2025 18:59:40 +00:00</LastUpdated>
+    <CustomXmlPartGuid>{643C6078-C44D-4F3F-94F9-75E9F436001C}</CustomXmlPartGuid>
   </CustomXmlPartIndex>
   <CustomXmlPartIndex>
     <CollectionName>HotkeyCommands</CollectionName>
@@ -2988,8 +3614,8 @@
     <ItemDescription/>
     <ItemType>Text</ItemType>
     <ItemSubtype/>
-    <LastUpdated>30/11/2025 16:47:00 +00:00</LastUpdated>
-    <CustomXmlPartGuid>{3CD0234F-C3CA-4BFF-808C-82736E334496}</CustomXmlPartGuid>
+    <LastUpdated>30/11/2025 18:59:40 +00:00</LastUpdated>
+    <CustomXmlPartGuid>{829378A5-9352-4BC7-B9AF-30F46EF55C2A}</CustomXmlPartGuid>
   </CustomXmlPartIndex>
   <CustomXmlPartIndex>
     <CollectionName>HotkeyCommands</CollectionName>
@@ -2997,8 +3623,8 @@
     <ItemDescription/>
     <ItemType>Text</ItemType>
     <ItemSubtype/>
-    <LastUpdated>30/11/2025 16:47:00 +00:00</LastUpdated>
-    <CustomXmlPartGuid>{0BCB9AEE-E685-4BD3-AFDB-0D7A4F4B41A4}</CustomXmlPartGuid>
+    <LastUpdated>30/11/2025 18:59:40 +00:00</LastUpdated>
+    <CustomXmlPartGuid>{848C4E23-1C05-4831-B0F7-4ADBC964B705}</CustomXmlPartGuid>
   </CustomXmlPartIndex>
   <CustomXmlPartIndex>
     <CollectionName>HotkeyCommands</CollectionName>
@@ -3006,8 +3632,8 @@
     <ItemDescription/>
     <ItemType>Text</ItemType>
     <ItemSubtype/>
-    <LastUpdated>30/11/2025 16:47:00 +00:00</LastUpdated>
-    <CustomXmlPartGuid>{27DA9B04-5AB3-47BB-801B-5F4F66B797C7}</CustomXmlPartGuid>
+    <LastUpdated>30/11/2025 18:59:40 +00:00</LastUpdated>
+    <CustomXmlPartGuid>{C3F5C45E-ADBB-49BF-ACE0-492D333683E2}</CustomXmlPartGuid>
   </CustomXmlPartIndex>
   <CustomXmlPartIndex>
     <CollectionName>HotkeyCommands</CollectionName>
@@ -3015,8 +3641,8 @@
     <ItemDescription/>
     <ItemType>Text</ItemType>
     <ItemSubtype/>
-    <LastUpdated>30/11/2025 16:47:00 +00:00</LastUpdated>
-    <CustomXmlPartGuid>{0FDC1646-E044-4F2A-8E2A-F734FE313E03}</CustomXmlPartGuid>
+    <LastUpdated>30/11/2025 18:59:40 +00:00</LastUpdated>
+    <CustomXmlPartGuid>{83CE389C-8BEF-4223-8E91-D6772F225040}</CustomXmlPartGuid>
   </CustomXmlPartIndex>
   <CustomXmlPartIndex>
     <CollectionName>HotkeyCommands</CollectionName>
@@ -3024,8 +3650,8 @@
     <ItemDescription/>
     <ItemType>Text</ItemType>
     <ItemSubtype/>
-    <LastUpdated>30/11/2025 16:47:00 +00:00</LastUpdated>
-    <CustomXmlPartGuid>{16D3AED1-4330-4B92-BB38-3C72DB3AAAD7}</CustomXmlPartGuid>
+    <LastUpdated>30/11/2025 18:59:40 +00:00</LastUpdated>
+    <CustomXmlPartGuid>{A1CD8D48-977F-4525-8D96-835938511C2B}</CustomXmlPartGuid>
   </CustomXmlPartIndex>
   <CustomXmlPartIndex>
     <CollectionName>HotkeyCommands</CollectionName>
@@ -3033,8 +3659,8 @@
     <ItemDescription/>
     <ItemType>Text</ItemType>
     <ItemSubtype/>
-    <LastUpdated>30/11/2025 16:47:00 +00:00</LastUpdated>
-    <CustomXmlPartGuid>{EBCFBFB9-BC5B-42FB-A4C4-96A3846E180C}</CustomXmlPartGuid>
+    <LastUpdated>30/11/2025 18:59:40 +00:00</LastUpdated>
+    <CustomXmlPartGuid>{3C6F85A4-3FC3-4DF7-B22B-AA8DFF7A800D}</CustomXmlPartGuid>
   </CustomXmlPartIndex>
   <CustomXmlPartIndex>
     <CollectionName>HotkeyCommands</CollectionName>
@@ -3042,8 +3668,8 @@
     <ItemDescription/>
     <ItemType>Text</ItemType>
     <ItemSubtype/>
-    <LastUpdated>30/11/2025 16:47:00 +00:00</LastUpdated>
-    <CustomXmlPartGuid>{A07B9F39-5676-40BB-B1D5-4B9C459E2875}</CustomXmlPartGuid>
+    <LastUpdated>30/11/2025 18:59:40 +00:00</LastUpdated>
+    <CustomXmlPartGuid>{C205C8D2-569D-411A-8C13-0048512B97E2}</CustomXmlPartGuid>
   </CustomXmlPartIndex>
   <CustomXmlPartIndex>
     <CollectionName>HotkeyCommands</CollectionName>
@@ -3051,8 +3677,35 @@
     <ItemDescription/>
     <ItemType>Text</ItemType>
     <ItemSubtype/>
-    <LastUpdated>30/11/2025 16:47:00 +00:00</LastUpdated>
-    <CustomXmlPartGuid>{9831D3B3-7209-4023-B178-9DB0F6DF8A72}</CustomXmlPartGuid>
+    <LastUpdated>30/11/2025 18:59:40 +00:00</LastUpdated>
+    <CustomXmlPartGuid>{5F424382-E924-4540-8402-515A5386DEF5}</CustomXmlPartGuid>
+  </CustomXmlPartIndex>
+  <CustomXmlPartIndex>
+    <CollectionName>HotkeyCommands</CollectionName>
+    <ItemName>_cipher.lambda</ItemName>
+    <ItemDescription/>
+    <ItemType>Text</ItemType>
+    <ItemSubtype/>
+    <LastUpdated>30/11/2025 18:59:40 +00:00</LastUpdated>
+    <CustomXmlPartGuid>{52A3E813-7A34-4AF7-974C-47A681AE2286}</CustomXmlPartGuid>
+  </CustomXmlPartIndex>
+  <CustomXmlPartIndex>
+    <CollectionName>HotkeyCommands</CollectionName>
+    <ItemName>_mod.lambda</ItemName>
+    <ItemDescription/>
+    <ItemType>Text</ItemType>
+    <ItemSubtype/>
+    <LastUpdated>30/11/2025 18:59:40 +00:00</LastUpdated>
+    <CustomXmlPartGuid>{3888D711-5B72-4C01-AA20-1F475A11846F}</CustomXmlPartGuid>
+  </CustomXmlPartIndex>
+  <CustomXmlPartIndex>
+    <CollectionName>HotkeyCommands</CollectionName>
+    <ItemName>_IFOMITTED.lambda</ItemName>
+    <ItemDescription/>
+    <ItemType>Text</ItemType>
+    <ItemSubtype/>
+    <LastUpdated>30/11/2025 18:59:40 +00:00</LastUpdated>
+    <CustomXmlPartGuid>{694014D7-C613-4BBC-B77C-988165B4577B}</CustomXmlPartGuid>
   </CustomXmlPartIndex>
 </writeIndexDataTable>
 </file>
@@ -3109,25 +3762,43 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{30CC4C99-D185-4514-8606-BE3800DCF712}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6419796A-66EB-4619-A338-2F496D0FE021}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps10.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A07B9F39-5676-40BB-B1D5-4B9C459E2875}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C205C8D2-569D-411A-8C13-0048512B97E2}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps11.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9831D3B3-7209-4023-B178-9DB0F6DF8A72}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5F424382-E924-4540-8402-515A5386DEF5}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps12.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D34ACC5F-0988-4A47-858C-6A305CB90BF8}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{52A3E813-7A34-4AF7-974C-47A681AE2286}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps13.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3888D711-5B72-4C01-AA20-1F475A11846F}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps14.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{694014D7-C613-4BBC-B77C-988165B4577B}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps15.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{57ABEB8B-F1D8-4D6E-B545-63A4248AA7C0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri=""/>
     <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
@@ -3137,49 +3808,49 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E00E7E8-3B72-4038-A432-23D6038519DF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7DC2E47D-07AE-4FFF-A66D-445832D24152}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0812DF3F-4660-47DC-BC82-29473CABF806}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{643C6078-C44D-4F3F-94F9-75E9F436001C}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3CD0234F-C3CA-4BFF-808C-82736E334496}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{829378A5-9352-4BC7-B9AF-30F46EF55C2A}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0BCB9AEE-E685-4BD3-AFDB-0D7A4F4B41A4}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{848C4E23-1C05-4831-B0F7-4ADBC964B705}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{27DA9B04-5AB3-47BB-801B-5F4F66B797C7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C3F5C45E-ADBB-49BF-ACE0-492D333683E2}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps7.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0FDC1646-E044-4F2A-8E2A-F734FE313E03}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{83CE389C-8BEF-4223-8E91-D6772F225040}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps8.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{16D3AED1-4330-4B92-BB38-3C72DB3AAAD7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A1CD8D48-977F-4525-8D96-835938511C2B}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps9.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EBCFBFB9-BC5B-42FB-A4C4-96A3846E180C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3C6F85A4-3FC3-4DF7-B22B-AA8DFF7A800D}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>